--- a/app_reviews/outputs/result.xlsx
+++ b/app_reviews/outputs/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>reviewer_name</t>
   </si>
@@ -35,733 +35,658 @@
     <t>review</t>
   </si>
   <si>
-    <t>Ashley Kotze</t>
+    <t>Sanket Kamble</t>
+  </si>
+  <si>
+    <t>8 March 2019</t>
+  </si>
+  <si>
+    <t>Rated 1 stars out of five stars</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>type yes says please help happening first adding fixing feature turning supported settings limit look payment option even bugs set assist given limits update acceptable understand want instead dont making</t>
+  </si>
+  <si>
+    <t>Niharika Bhatnagar</t>
+  </si>
+  <si>
+    <t>10 March 2019</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>apps im possible register still issue ticket havent wallet paytm already kyc completed customers use like shift losing raise able solve allow tried supposed even ridiculous procedure want wont dont done</t>
+  </si>
+  <si>
+    <t>shubham billus</t>
+  </si>
+  <si>
+    <t>7 March 2019</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>possible saynotoscams socalled paytm help worst emails contact either call used app worse unavailable much scams comes try dont reporting people love scam become even respond want chat 247 helpline inapp</t>
+  </si>
+  <si>
+    <t>Doreen Fernandes</t>
+  </si>
+  <si>
+    <t>11 March 2019</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>complaints issue remains unresolved paytm kyc use useless sending work links app pay insisting resolved dealings several uninstall process link spite unable responded payment keep want balance helpline</t>
+  </si>
+  <si>
+    <t>Rahul KR</t>
+  </si>
+  <si>
+    <t>9 March 2019</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>time startup device android shop owner using experience oreo first wait gives outdated user initiate version long optimize ram look 6gb cant payment terrible put lite slow</t>
+  </si>
+  <si>
+    <t>Koihei Hauz</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>time return working nobody item trusted paytm thats go wish man 8 honestly piece awareness mall good speaking really lack could deserve brought dont fully policy fooled mouse ya back two computer</t>
+  </si>
+  <si>
+    <t>ashok kumar Mohapatra</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>relating working new query issue default requested worst representative kind result today told asked information provide tickets resulti reinstall customer service morning also appropriate screenshot upgradation version sent called account setting raised needful two email</t>
+  </si>
+  <si>
+    <t>Prajul Vishnu</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>time hell shows per coupon response care fooling customers using another call without offer customer service user connect valid music one played even takes usage totally mins executive 5 bloody</t>
+  </si>
+  <si>
+    <t>gattu venkatesh</t>
+  </si>
+  <si>
+    <t>Rated 2 stars out of five stars</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>date unlimited expected cheating showed paytm free seems using priority like without mall bought delivery first intimation loyal doesnt sudden wife name genuine 4yrs see program actively last even accounts shipping saw subscription products changed loyalty</t>
+  </si>
+  <si>
+    <t>Manish Wadhe</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>time resolve rupees recommend issue please paytm bank care worst customers use support experience call center unsuccessful app customer also ever appointed several transaction connect got secure one safe lost sent cant tried reply least 1270 executive email calling</t>
+  </si>
+  <si>
+    <t>Mohan Durga Prasad</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>default paytm wallet selection thru fast use fan clicked work lose recent forward credibility done never selected proceed payment tried recharge list remove immediately dont number pls happened automatic huge</t>
+  </si>
+  <si>
+    <t>Kevin Shukla</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>areai type grewal issue cheeted commitment today told boyall 15 call ask delivery ur person fake service black prince deleiverd give safe u home order boy address excusesthat delivered swaggy zone good female</t>
+  </si>
+  <si>
+    <t>goutam sarkar</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>still issue fixed happen paytm guys already seen shame another repeatedly th forward updates app 7 updated 4 means days yesterday version updation last bugs dont 5 6</t>
+  </si>
+  <si>
+    <t>Script Writer</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>accounti savings says times hrsand hrs care worst kyc messsage open providedso sending photo received document amd openedi customer around card also cardplease updated days trying veriy 24 agent unable agents 10 talk sent account pan send appi almost message 5 photos</t>
+  </si>
+  <si>
+    <t>chintu rock</t>
+  </si>
+  <si>
+    <t>Rated 3 stars out of five stars</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>save working issue updatesif getting correct notify use recent fullso users app namesalso details scanned gets pressing showing updated able toselect transaction button small name currently one signal close option even list need back scan possibleforce good stuck n</t>
+  </si>
+  <si>
+    <t>Salman Saiyed</t>
+  </si>
+  <si>
+    <t>6 March 2019</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>time return wash way itvery query side medimix bad correct support contact face pack bought system 2this ur previously alredy less 3 customer replace service fraud raise means quantity wrong sent u option cheap send even reply product</t>
+  </si>
+  <si>
+    <t>Tajinder Singh</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>edit toooooo search correct else great mall apply tab shown app sometimes filters also retype correctly cannot small returns give results font need overall options</t>
+  </si>
+  <si>
+    <t>Madhu Badisha</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>time working updateafter default getting shows every paytm bank worst recent app money transaction transfer account payment option even non update selecting</t>
+  </si>
+  <si>
+    <t>A Google user</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>phone may paytm rs seven know receiving reason received 700 2000 amt app paid electricity massage away transaction cash one flashing back bills</t>
+  </si>
+  <si>
+    <t>Bilal Dar</t>
+  </si>
+  <si>
+    <t>Rated 4 stars out of five stars</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>account time new remitter default multiple rectify every need upi accounts transaction case please problem select benefit version selecting carrying</t>
+  </si>
+  <si>
+    <t>yusuf kushurian</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>picks time says paytm worst executives customers moreover without mall failed picked service trying returns messages one sent always busy boy even pickup marks reply number</t>
+  </si>
+  <si>
+    <t>Pankaj Tirpude</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>time makes add wallet paytm thats work either runs unsuccessful app doesnt make whenever try money faster crashes urgent transaction fair always</t>
+  </si>
+  <si>
+    <t>Abhishek Bandyopadhyay</t>
+  </si>
+  <si>
+    <t>time platform wallet kyc use 20 support fine without good super points claim hate app buggy pay laggy bothering customer quite govt pathetic process policy freeze see charge norms uploading cant option hooked started bucks freely scan dont done downfall</t>
+  </si>
+  <si>
+    <t>gokul vidyardhi chadaram</t>
+  </si>
+  <si>
+    <t>get may paytm response care using 30 received person app pay part customer money got hadnt cash rs790 sad never lost sent account didnt tried debited chat contact mins</t>
+  </si>
+  <si>
+    <t>Sunil Reddy</t>
+  </si>
+  <si>
+    <t>clearly get refund paytm wallet rs made kyc cashless completed uploaded customers initial paying disappointed using told experience loved 30 asked everything decided nearby service stop money days got one close store account visible saying started documents good message done latest</t>
+  </si>
+  <si>
+    <t>Pritam Nirmal</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>mantioned still query shows section bad useless sending told frustrating mentioned 1 app service 100 gives question deserve dont link cash star never even rupee back 247 single</t>
+  </si>
+  <si>
+    <t>Dhanesh Kamal</t>
+  </si>
+  <si>
+    <t>issue ticket get bad offers seen issues replies another history happens tickets doesnt resolving gets raise poorest ever transaction thing say hats delivered given</t>
+  </si>
+  <si>
+    <t>Aman Ankit</t>
+  </si>
+  <si>
+    <t>1 March 2019</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>services better recommend side get please paytm sure application bad seems 2 understanding using support literally feeling anyone issues provided experience happy years responsibility customer thrown service make try satisfaction hope big providers grown never reaching concept</t>
+  </si>
+  <si>
+    <t>Junaid Mohsin</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>services still get times please delete paytm initial ive everytime stepthis customer ever 4 revert days associated pathetic confirmation confirm account requesting last taking dealt want replied 5</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Rated 5 stars out of five stars</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>rating privacy paytm year stays using issues priority earlier solution everything perfect app increasing aadhar 3 user hope digital top become started almost 5 due</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>handled appropriatelyserious phone paytm response care kyc interospection using issues repliesthe issueseven tickets comments customer service posted got last standard follow procedure yearsdisappointed due</t>
+  </si>
+  <si>
+    <t>Sreeman Sri</t>
+  </si>
+  <si>
+    <t>issue proper blocked paytm forgeting solving customers open login like would servers aftet loosing problem blocking account amount accouts reply growing</t>
+  </si>
+  <si>
+    <t>Ajay Pratap Singh</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>services love shop quick payment thanx make great issue resolved whether got response payments transactions related app one</t>
+  </si>
+  <si>
+    <t>query shows paytm wallet error help care sufficient use cust passbook website another provided either web failed allowing system good used app raise money stating button checkout 0 currently retry called cant 24x7 payment always busy even recharge though balance stuck</t>
+  </si>
+  <si>
+    <t>Pepe: TheFrog</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>said different going paytm reached made support told team double problems electricity 3 vendor looted got occasions talk scam pagtm payment nice</t>
+  </si>
+  <si>
+    <t>Dinesh Kumar</t>
+  </si>
+  <si>
+    <t>1553</t>
+  </si>
+  <si>
+    <t>time getting hoping paytm works kyc ui fine experience without well sailing smooth app user crashes process hiccup glitches long done</t>
+  </si>
+  <si>
+    <t>Banibrata Dutta</t>
+  </si>
+  <si>
+    <t>painful wipeout works inperson kyc mobile royal end login crazy travel personal centre told rear anymore cases well obscure information mandate 6kms updates switched 4g pay doesnt sometimes decent also away traffic data wifi one google need relogin procedure slow coverage full good pain must</t>
+  </si>
+  <si>
+    <t>himanshu sharma</t>
+  </si>
+  <si>
+    <t>use useless better rules regulations added cheating money someone show paytm wallet adding trying instead error kyc giving app done</t>
+  </si>
+  <si>
+    <t>Garvit Khandelwal</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>movie selected book fee also app sold automatically ticket bought raise able add paytm risk problem cancellation protect never</t>
+  </si>
+  <si>
+    <t>pankaj kumar</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>balance account 35 date trust tm rupees even recharge 020319no getting debited bank docomo received recharging number done tata pay</t>
+  </si>
+  <si>
+    <t>parrosev parrot</t>
+  </si>
+  <si>
+    <t>tm human using 24x7 pan allows could someone helpbut executive kycbecouse already reported complete dont number anything app misuse pay</t>
+  </si>
+  <si>
+    <t>chinnu darwin</t>
+  </si>
+  <si>
+    <t>use password cant entering loads anymore registered even gave set hangs need alert mobile app</t>
+  </si>
+  <si>
+    <t>apps improvement please add kyc bad performance rechargepay etc nowadays bill problem much also perform money able solve account even done half needs</t>
+  </si>
+  <si>
+    <t>edit cant fools read become buggy understand dont problem really developer perfect app simply fool</t>
+  </si>
+  <si>
+    <t>Dhiraj Kumar</t>
+  </si>
+  <si>
+    <t>3 March 2019</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>line putting paytm application response care customers simply use read like call coppaste customer fake service also raise complain think didnt description available employee saying parrot reply number statement</t>
+  </si>
+  <si>
+    <t>gpraveen kumar</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>better time still query issue ippb paytm bank worst care sincere use month banks 1 problems airtel much customer request india dont payments solve taking solved payment raised back 247</t>
+  </si>
+  <si>
+    <t>Nirav Chavda</t>
+  </si>
+  <si>
+    <t>doesnt done type anything like excuse company get gave charge activity rs good agent kyc 40 app give</t>
+  </si>
+  <si>
+    <t>Jubil Mathew</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>expired way phone e please centres help care kyc customers today since relaxation customer money ac months asking transactions unable immediate give rbi close extends planning compliance six us contact</t>
+  </si>
+  <si>
+    <t>afthab abdul jaleel</t>
+  </si>
+  <si>
+    <t>use 8 time samsung frequently note 800 first soon need device android uninstall good os crashing app open keeps</t>
+  </si>
+  <si>
+    <t>Kiran Akadas</t>
   </si>
   <si>
     <t>25 February 2019</t>
   </si>
   <si>
-    <t>Rated 1 stars out of five stars</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>3365</t>
+  </si>
+  <si>
+    <t>care worst trace helpline call without app doesnt customer try ever attended transaction happened acxount never payment even exist amount debited hour half rejected</t>
+  </si>
+  <si>
+    <t>Rakesh Das</t>
+  </si>
+  <si>
+    <t>called customer line support care 20 tried issue minutes attending got worst resolve app one</t>
+  </si>
+  <si>
+    <t>prasanta sahoo</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>payzapp 30000 walletso monthly debit couldnt add worst bad minimum app service card yespay think providers give close cant added starworstworsted balance 5</t>
+  </si>
+  <si>
+    <t>Amitabh Suman</t>
+  </si>
+  <si>
+    <t>27 February 2019</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>initially time cheating says hence paytm care mall customer service also fraud allowed money waste cancellation people called charged enough ordering receive product</t>
+  </si>
+  <si>
+    <t>Thanmai Reddy</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>oly issue get times proper care chash thatz crash problem app customer early backs user resolved crashes soon days reach payments friendly give number resolve making</t>
+  </si>
+  <si>
+    <t>harish chauhan</t>
+  </si>
+  <si>
+    <t>edit past stupid still phone get finally cart android iphone go made sms nail 2 bullock using told call oppo first upbihar problem yuck 1 otp customer service p wait navigating thrice hung hours pathetic got bar limit rep size wrong top loginbecoming thin answer hour almost n</t>
+  </si>
+  <si>
+    <t>ISLAMIC BAYANS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>phonepe phone paytm application go customers use well 1 tezz doesnt fraud deserve dont data memory wastage google star value even guys</t>
+  </si>
+  <si>
+    <t>Rashav Chettri</t>
+  </si>
+  <si>
+    <t>time possible ans please paytm help like problems comes money causing feature transfer account lot added send someone update features want</t>
+  </si>
+  <si>
+    <t>Chaitanya Maheshwari</t>
+  </si>
+  <si>
+    <t>easy issue paytm cashbacks luck worst care cashless sending support fine great without automated solution lives staff problem app customer delays resolved dont messages relevant encounter long never filled sometime even keep good making</t>
+  </si>
+  <si>
+    <t>anoop gupta</t>
+  </si>
+  <si>
+    <t>26 February 2019</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>account customer care always heavy tried early morning merchant reflecting service times evening several traffic response payments made bad calling</t>
+  </si>
+  <si>
+    <t>Nagesh Gota</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>unwanted time query putting paytm didint care worst use like call speak center tries many customer avoiding able looks lenthty process small waste intentionally people annoyed procedures</t>
+  </si>
+  <si>
+    <t>Black Rise</t>
+  </si>
+  <si>
+    <t>5 March 2019</t>
+  </si>
+  <si>
+    <t>date working fixed add know fine placebur everytime first guess triedreinstalling problem app try money recently crashes lot started 5319 dont crashing</t>
+  </si>
+  <si>
+    <t>Sam Lekhi</t>
+  </si>
+  <si>
+    <t>time complaining recommend delighted paytm bank year free worst made shops recommended use 2 business theres merchant first 1 many extremely increasing transfers service 4 payments took providers charge people account always postpaid even best accounts instead good balance</t>
+  </si>
+  <si>
+    <t>Florence Nightingale</t>
+  </si>
+  <si>
+    <t>services disconnected time phone get refund eva seats paytm wish care made bad seen business company ive night shud infact vanish far concern person really actually app customer lifes rong road money thus life soon reach stand yet star give ppl worthless v suffer even gave dint want bus whole dont n</t>
+  </si>
+  <si>
+    <t>fees better waiting hear phone havent add wallet case scratch worst bad seen lay experience high bit app pay card also money ever 4 gives uninstall js cash google transfer account say back spend</t>
+  </si>
+  <si>
+    <t>Malav _2000</t>
+  </si>
+  <si>
+    <t>better annoying promotion section application mall apply shown effective app much spoiled price interface directly confirm show need update dont old product</t>
+  </si>
+  <si>
+    <t>Kinjal Trivedi</t>
+  </si>
+  <si>
+    <t>day new times please tomorrowthats promocode aplicablenot maximum either apply provide id queries try able stuff thing u people option tried general put advanced allwhen mail reply active</t>
+  </si>
+  <si>
+    <t>Dinesh Pandian</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>issue facing login use literally realized test app many able completely replacing mistake cash giving version people update instead guys latest</t>
+  </si>
+  <si>
+    <t>Sahil Rana</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>time ithorrible copy every paytm wallet wrap tracked know words today support r first since adding alert deducting observed much customer allowed untrusted dont zomato transactions 500 70 thing pasting long order inr 377 last supposed added contacted ubereats update ordered scammers balance regularly</t>
+  </si>
+  <si>
+    <t>Shyamal Ranjan</t>
+  </si>
+  <si>
+    <t>time still rupees 1minute intervel wallet paytm bank action already minus bit spectranet bill deducted pay paid request second 2942 5884 4 odd remaining fishy account lousy supposed amount debited broadband 2946 canara successfully</t>
+  </si>
+  <si>
+    <t>sohail Khan</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>better settel charging im still phone paytm ie know issues business merchant much persist gonna uproot 4 surely account pe dont</t>
+  </si>
+  <si>
+    <t>Rishi Lal</t>
+  </si>
+  <si>
+    <t>phone paytm care well system speak lie app customer directly executive pathetic trying reach yet 24x7 even mail reply claims email</t>
+  </si>
+  <si>
+    <t>Naman Dixit</t>
+  </si>
+  <si>
+    <t>waiting time 230 get refund denied paytm operator hrs travel fools told demanded provided call waited provide concern incident came picked morning booked got agent message one never people didnt loot raised boarding timing point bus hour 72 number cheat</t>
+  </si>
+  <si>
+    <t>amit zham</t>
+  </si>
+  <si>
+    <t>themselve receivedthey return transferring going blocked bank kyc comply anyone would worry allowing die coming app transferred pay untrusted google amount back wanted dont</t>
+  </si>
+  <si>
+    <t>Aneesh Nair</t>
+  </si>
+  <si>
+    <t>2 March 2019</t>
+  </si>
+  <si>
+    <t>return lg issue item going times please paytm response bad using company electronic branded incident many purchase app request thanks service also fraud poorest money refrigerator uninstall damaged one never people lost requesting even delivered purchased two managing product rejected</t>
+  </si>
+  <si>
+    <t>Masroor Khan</t>
+  </si>
+  <si>
+    <t>fees still paytm help worst care kyc pvr place numbers authorized well mentioned desk id paid customer vendor surprising showing near question completepathetic submitted god called experiencerevert appi answers mail 247 connaught rigal</t>
+  </si>
+  <si>
+    <t>problems time using last fix month ok recharge showing mobiles report soon year onwards entered everything pls networkmoney app give</t>
+  </si>
+  <si>
+    <t>Himalayan Drifters</t>
   </si>
   <si>
     <t>824</t>
   </si>
   <si>
-    <t>firstly please apps struggling game players close unpleasant also due terrible middle real doors fix overheating since everytime makes issue lot opening love well phones issues new update phone</t>
-  </si>
-  <si>
-    <t>Team Arrow4Life</t>
-  </si>
-  <si>
-    <t>27 February 2019</t>
-  </si>
-  <si>
-    <t>Rated 5 stars out of five stars</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>etc game idk recommend sometimes also getting amazing occasionally load rarely great resident since guess thats graphics cause highly evil laggier happened fixed love overall ive devices mobile internet new whats longer update causing bit problem lags</t>
-  </si>
-  <si>
-    <t>Vishakh Vashishtha</t>
-  </si>
-  <si>
-    <t>23 February 2019</t>
-  </si>
-  <si>
-    <t>886</t>
-  </si>
-  <si>
-    <t>dress please special using validity collect use holiday ans help mode cannot 50 cards hi last added days would zombie thought want collected happened updating 145 event sucks maybe 60 sometime update need left</t>
-  </si>
-  <si>
-    <t>Brittney Brophy</t>
-  </si>
-  <si>
-    <t>24 February 2019</t>
-  </si>
-  <si>
-    <t>2650</t>
-  </si>
-  <si>
-    <t>much im game else players thing getting season exchange fact points rate extra american get thnx everyone since pay towards playing theres item give way pass lot issue dont dollar 2 royal love guys people understand spending maybe spend 10 money bit mind</t>
-  </si>
-  <si>
-    <t>A Google user</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>upset exactly game stars absolutely friends survive amazing hope animals dawn points alltime maps get mode favorite like one think arcade explained dont weve hands wanting games love make ive rank event godscreatures maybe mythological till 5 future</t>
-  </si>
-  <si>
-    <t>Leonardo Taufan</t>
-  </si>
-  <si>
-    <t>26 February 2019</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>game bullet limiting even sometimes features theyre everything amazing audio pc version capable expect since drop yet playing doesnt pubg settings graphics smooth yes dont enough clunky people tell mobile fps allow 60 clear bit problem phone</t>
-  </si>
-  <si>
-    <t>COMm-ON kNOW-ledge</t>
-  </si>
-  <si>
-    <t>1 March 2019</t>
-  </si>
-  <si>
-    <t>3458</t>
-  </si>
-  <si>
-    <t>im game play close hard home even move lose yall match bugs pitiful really answer screen pro kill bullcrap ended awful lobby better playing shoot back ever harder bot dont player 2 games people glitches forget make wont hackers 1 log star still new ace update combat updates return</t>
-  </si>
-  <si>
-    <t>2 March 2019</t>
-  </si>
-  <si>
-    <t>Rated 2 stars out of five stars</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>trying wifi game supported spent later five improved two hope device good say brands get time heres slow idea review moment download actually tell intill app hours future gameplay</t>
-  </si>
-  <si>
-    <t>4 March 2019</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>please etc uninstall game play even bugs requesting singal properly fix hell server zombie thinking leg bug upcoming love something lag new update need problem</t>
-  </si>
-  <si>
-    <t>474</t>
-  </si>
-  <si>
-    <t>much couldnt im shooting game play gameplay even landing everything lagged land dead like enemies didnt hell way freezes dont continuously immediately recent die wrong know hotspots bother update cant single lags</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>game play recommend even trash bad really stayyyyyyy fortnite away completely like better whereas playing ever way lot games complete order experiencetrust experience desappointed months brutal 6</t>
-  </si>
-  <si>
-    <t>remnickson victor</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>asap rare times entered say developer played bad occurence map already fix like pls plane playing latest could vikendis lag 10 stuck occurs update never problem months 6</t>
-  </si>
-  <si>
-    <t>_ Zen_</t>
-  </si>
-  <si>
-    <t>im becoming bringing game home sometimes kicks match bugs loved screen character fix anymore disappointed latest doesnt lot appear games people glitches guys gonna sucks new laggy update reason totally</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>much gaming hate shooting go im game play friends u terrible ruining lost fix cuz anymore playing could one last pubg thanks going lot yeah graphics dude player oh people love guys tell lag experience left</t>
-  </si>
-  <si>
-    <t>dwaipayan samaddar</t>
-  </si>
-  <si>
-    <t>19 February 2019</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>buster dress etc im game play u gives cars real good job without true always items doubt skins ever often dont fancy best make realistic weak purchasing stress awesome still guns feels wife</t>
-  </si>
-  <si>
-    <t>Matthew Hendrickson</t>
-  </si>
-  <si>
-    <t>21 February 2019</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>game play answers players absolutely decide lose ignored downloaded asks get great time high awhile sure service one ticket think canned google enough download 2 actually ban slight type week bans every contact volume cracked store treatment straight reinstall problem months customer</t>
-  </si>
-  <si>
-    <t>Victor Gillerson</t>
-  </si>
-  <si>
-    <t>4425</t>
-  </si>
-  <si>
-    <t>needs hard team pretty survive everything boost suggestion fact huge without unless time resident mode 50 work would harder fighting evil 2 people love gotta make perfect wont 60 guns awesome consider except bike plz</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>im uninstall game play ill hard updated map kill difficult enemies like better remove feeling zombie love zombies new us cant possible feel hating</t>
-  </si>
-  <si>
-    <t>Train Conductor</t>
-  </si>
-  <si>
-    <t>22 February 2019</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>much game play mext platform included pretty thing putting pc job good short honestly simple despite enjoyable expect anymore review content dont boring onto visuals games ive realistic pros mobile simply experience update reason strategicetc making</t>
-  </si>
-  <si>
-    <t>Yash krishn kumar</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>much please game 20 even opened sad installed friends season crate theygaveme really help nothing lit playing days luck pass otherwise 4 coupon achievement try happened matter love deleted got glitch bought awesome 5 cant buy daily battle gift today 6</t>
-  </si>
-  <si>
-    <t>Sandra Marie Torres</t>
-  </si>
-  <si>
-    <t>Rated 4 stars out of five stars</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>couldnt deals game also user burn amazing downside addictive rate get great upgrade like starts giving google big gamer graphics extremely dont 45 something given every 1 event got spend wouldve 5 money cant problem</t>
-  </si>
-  <si>
-    <t>Mike Wasawsky</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>arabia game play cares team also match trash short asia asians wall like nice aimboters region long would dont story gypsies developing joining 90 forget people hackers every many single restriction</t>
-  </si>
-  <si>
-    <t>prince shohag</t>
-  </si>
-  <si>
-    <t>11 March 2019</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>beautiful game play system version thank next help always wish remove playing previous one back think give gamer takes dont player teammates restart best goed every come offline mood us poewr problem</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>Something Serious T.V. #</t>
-  </si>
-  <si>
-    <t>10 March 2019</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>game optimized even team weeks development device buggy 3 improvements bad performance high get planet cannot poor end giving servers way things playable 2 fixed wait responsiveness small shittiest still level update laggy</t>
-  </si>
-  <si>
-    <t>Dakota Obrian</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>game survive ur id talked suggestion dawn royale thank great mode everyone time unique moble lit thinks stay however made makes keep actually games love app store reading battle updates</t>
-  </si>
-  <si>
-    <t>Angela Valeska Harijono</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>game stars bothering cool middle good error graphic get enjoy thiss always fix plis blank work take one give wanna lot dont download storage games deleted wont well automaticly start still 5 reason phone</t>
-  </si>
-  <si>
-    <t>jimmie muggy</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>using im shooting frustrating pretty audio backwards right use let screen flips always headphones flip want rotate fun dont works fantastic die heard well left coming phone</t>
-  </si>
-  <si>
-    <t>1019</t>
-  </si>
-  <si>
-    <t>uninstall game play used pretty amazing cool read boy hope funits enjoying really graphic girls like better coolamaizingand gamesomeone bored toookay playing applications review big fun enough download memory solo app friend inspired phone</t>
-  </si>
-  <si>
-    <t>7 March 2019</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>cheaters mouse mean game tablets players field recommend looking gives version isnt use refuse cheat killed spoils equal enjoyable full cell find one made advantage puts big pubg fun mobile phones youll keyboard exception</t>
-  </si>
-  <si>
-    <t>Sarah Alinaa</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>im game used also login pc email read played permanently without banned rate always purchased years message days account pubg sorry lot sent 2 messages love 1 star 10 ago reply laptop reason never</t>
-  </si>
-  <si>
-    <t>1064</t>
-  </si>
-  <si>
-    <t>please hard purchase face female problems also u times 3 drops version use get character fix wish depending better current bugshacks however skins playing servers somewhat male graphics things often 2 assistance rp fixed love femalemale make 7810 1 clothing awesome support money gameplay problem customer</t>
-  </si>
-  <si>
-    <t>Leslie Sabu</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>fight survival game players team results played neat resident least classic meant winning evil people fantastic guys zombies coop event except backstabbing gameplay moronic</t>
-  </si>
-  <si>
-    <t>SHAH QUADRI</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>im asap uninstall game play amazing developers really delete voice improve properly fix ok working plzzz want dont try fantastic guys many forward angry straight reply dear problem person chat</t>
-  </si>
-  <si>
-    <t>mehedi hasan</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>much business game face burned king device good version old rate configuratrion nothing like nice done zero latest previous could server think would zombie doll issue users games kids many sucks issues feels theyve update gold lags</t>
-  </si>
-  <si>
-    <t>prodigal son</t>
-  </si>
-  <si>
-    <t>20 February 2019</t>
-  </si>
-  <si>
-    <t>11534</t>
-  </si>
-  <si>
-    <t>game play players easy also friends thing id changed eachother instead world addictive put trade get great high nice could fire cost would little graphics things able keep people stuff change something expiring cant guy girl buy</t>
-  </si>
-  <si>
-    <t>Logan Lansangan</t>
-  </si>
-  <si>
-    <t>much please runs supported rca even system op went device 3 isnt let voyager get great soon fix least run however message fixable would 70 thinking love tablet android app bought know saying phone</t>
-  </si>
-  <si>
-    <t>Aarya Dhutmal</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>mean game happens networks installed match times changing asks uninstalled soon time freaking like work playing disappointment server finally give would want makes lot issue restart wont tried every many start app still possible huge looked</t>
-  </si>
-  <si>
-    <t>Prasenjit Raj</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>platinum im fair game players happens face pretty sometimes recently u match good isnt fix literally lobby diamond frm thats big tiny issue 4 player experiencing guys perfect well bronze matchmaked every 1 aspect honest okay gold problem making</t>
-  </si>
-  <si>
-    <t>DJ SPACEOUT</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>duos island squads 2000 game players gear force matches team progresses ending match parachute thus option royale alone time constricts towards one area hundred three fighting remains playable player onto within scavenge gradually solo defend others battle japanese experience goes inspired earned film another encounters</t>
-  </si>
-  <si>
-    <t>Arron Horn</t>
-  </si>
-  <si>
-    <t>12 March 2019</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>please game ticks 2nd u season everything anything played duo thank get fix wish since diamond playing tick find doesnt squad ever issue completed weapon achievement best keep love guys solo ive master 1 rank still cant problem making</t>
-  </si>
-  <si>
-    <t>Vijay Baidya</t>
-  </si>
-  <si>
-    <t>699</t>
-  </si>
-  <si>
-    <t>shots please much game watch players videos amazing although developers ground mechanism open shizuka like enemies playing find anticheat reporting three thanks directions unable youtube yamraaj many others invisible got listen still cheating contactme</t>
-  </si>
-  <si>
-    <t>Arunav Dey</t>
-  </si>
-  <si>
-    <t>26192</t>
-  </si>
-  <si>
-    <t>much game stars play phone frame unlock pretty youd day thing retreat youre hoping setting extreme fully let rate medium great annoys always run end 60fps one didnt rates give going smooth settings model games well heavy believe know 5 maximum limited powerful</t>
-  </si>
-  <si>
-    <t>snwahidah</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>please hate uninstall game ones president everything version old updated pleaseeeeeeeeee disappointed back think want pubg big zombie sorry extremely dont evil love fan whatever come seasons need care</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>room among republicans met aapssskkdj officials season election right good alfadly orll time arafat place british seemed case part campaign would want lot dont reason question prince huge list never amount</t>
-  </si>
-  <si>
-    <t>JustWannaPlayGames</t>
-  </si>
-  <si>
-    <t>1251</t>
-  </si>
-  <si>
-    <t>much ruined asap game rating sometimes also landing used hope isp load really screen time get fix buildings seconds playing smooth lot freezes fun checked actually stuttering change taking side terrain internet running update problem</t>
-  </si>
-  <si>
-    <t>Sayantan Sam Sarkar</t>
-  </si>
-  <si>
-    <t>6440</t>
-  </si>
-  <si>
-    <t>freedom dinner 19 bringing intense gameplay absolutely entertaining 2019 employed real job super addictive methods get book mode always types like chicken different done winner zombie fun people elusive something many whatever see tencent new tactics feb feel choose interesting kudos</t>
-  </si>
-  <si>
-    <t>Shubham rawat</t>
-  </si>
-  <si>
-    <t>9 March 2019</t>
-  </si>
-  <si>
-    <t>1263</t>
-  </si>
-  <si>
-    <t>im game stars calls result used everything connected fine call facing unless soon open get someone work doesnt music headphones thats would pubg issue story 2 restart disconnect ive started tried listen pick 5 whenever headphone another</t>
-  </si>
-  <si>
-    <t>Daniyal Ahmad</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>closes game says even used also good say really ping screen arises run playing long doesnt experienced pubg loading ive mobile many start sudden low first earlier starting whenever problem lags</t>
-  </si>
-  <si>
-    <t>Gareth Yang</t>
-  </si>
-  <si>
-    <t>8964</t>
-  </si>
-  <si>
-    <t>please 8 optimized happens developer permanently overlapped layout p20 screen pro affects fix menu mi press issue buttons something notch drastically updating phones new edit update cant button gameplay patch</t>
-  </si>
-  <si>
-    <t>aison vidallon</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>please using game devs even audio times enabled isnt fine permission voice great next help enjoyable broken seems headset settings ingame ive overall app hear though cant chat problem</t>
-  </si>
-  <si>
-    <t>XNappy Boyx</t>
-  </si>
-  <si>
-    <t>Rated 3 stars out of five stars</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1784</t>
-  </si>
-  <si>
-    <t>much needs game players nepalese face team globally match played indian respected released thank cannot nepal vietnamese since indonasian felt playing stop request server pubg heartily best try games people love tried small eager gamewe create tencent new till us developing</t>
-  </si>
-  <si>
-    <t>William Walker</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>please im game contemplating pretty went middle high forced fix patchy schoolers anymore done playing made hell seriously download whatever 80s awesome laggy update sheesh restore water</t>
-  </si>
-  <si>
-    <t>Grimmity Mobile Gaming</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>stole im game emails top hope id f2p essentially without banned take giving could request back thats account would gladly player legit ban wont ive given respond still understatement money clan reason turn livid</t>
-  </si>
-  <si>
-    <t>Shreyas Kotkar</t>
-  </si>
-  <si>
-    <t>needs dinner game interestingly point team weapons practically competitive amazing cool duel anything crate 3 improvements coins rewards get epic mode nothing simplest chicken like costumes simple items however everytime win would zombie winning 4 2 make guaranteed 1 rooms except laggy cant major head 4v4</t>
-  </si>
-  <si>
-    <t>Tejas Karve</t>
-  </si>
-  <si>
-    <t>28 February 2019</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>needs game play god greater hard team bless development really downloaded ground time imagine working end success long trial back may keep growing guys reluctant community rigidly appreciate amazed experience stood hyped charm</t>
-  </si>
-  <si>
-    <t>8 March 2019</t>
-  </si>
-  <si>
-    <t>much game sometimes also team normal getting lagging voice mates lost mode high middlelowend sanhok inbetween end playing server restart mapand description devices mention losing become chat problem</t>
-  </si>
-  <si>
-    <t>Shaikh Danial Ali akhtar</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>resolved game beautiful bugs trash lagging developers really voice worths uninstalled time always full run nice gone long think going otherwise dont 1 star smoothly wouldve cant problem care</t>
-  </si>
-  <si>
-    <t>Honey Panwar</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>much cheaters gaming game frame day two thing bugs deleting world lagging drops fix like full remove doesnt one hell past round way going worse pubg able best unable games requests community hackers many mobile seasons tencent resulting future making</t>
-  </si>
-  <si>
-    <t>Charlie Xu</t>
-  </si>
-  <si>
-    <t>5 March 2019</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>month worst detailed received even messaged disheartening dozens times achievements proof interacted permanently banned lost ways hundreds yet could innocence little multiple worse dont process messages dollars ive nonautomated thousands know still provided ago wrongfully support reply hours single never customer</t>
-  </si>
-  <si>
-    <t>Ath Lete</t>
-  </si>
-  <si>
-    <t>368</t>
-  </si>
-  <si>
-    <t>kind half please year speed later game play used getting saved 3 loose btw without whatsapp study report killed runner addicted take unfortunate dont 2 actually hackers media still see spend cant career hours life hour care social</t>
-  </si>
-  <si>
-    <t>Nadja Lee Torres</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>uninstall game play even thing kicks payed match loud glitchy membership end added eventually keeps tho zombie beeps glitching extremely freezes worse regret within glitches barely decided small whole got hear new 10 edit update totally gain</t>
-  </si>
-  <si>
-    <t>Ayantika Roy</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>swearing shooting im game stars day infinity played version really curious downloaded rate loving exciting waiting like since anyone ever trailer pubg thanks best mobile deserves updates introduced making</t>
-  </si>
-  <si>
-    <t>Edward Epright</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>chalk turns hrs go game pops thing mostly everything clip 31 put occasional get shot like full shoot crown back one 12 finally tier makes opponent make 18 dime free around took app cheating guy 40 worth</t>
-  </si>
-  <si>
-    <t>Doom Shroom</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>couldnt game even team thing encountering clip fired visible himher joy long one didnt three round fun disconnected immediately hair managed pan hackers whole invisible longheaded friend knock shattered reenter head</t>
-  </si>
-  <si>
-    <t>Kenaz Lai</t>
-  </si>
-  <si>
-    <t>im happen runs game stars stream devs rating used everything amazing page job large title updated great open time fix however didnt would moment pubg three smooth graphics mins unable fixed glitches change every usually simply app new 5 edit response update loads crash</t>
-  </si>
-  <si>
-    <t>Ayush Gaming</t>
-  </si>
-  <si>
-    <t>1536</t>
-  </si>
-  <si>
-    <t>Pawan Bhandari</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>much worst lots game play entertaining countrynepal ruins good ping get satisfying high always gamers work request area making enjoyment people love thankyou widely tencent care</t>
-  </si>
-  <si>
-    <t>Mayank Tiwari</t>
-  </si>
-  <si>
-    <t>6 March 2019</t>
-  </si>
-  <si>
-    <t>apps tracking used weeks officials video violate yrs party soldiers banned revert mails 50 service didnt one account 3rd give aleast pubg sent given got 10 rules send clue reply pfk gameplay</t>
-  </si>
-  <si>
-    <t>Maisum Walli</t>
-  </si>
-  <si>
-    <t>im stars play game even used also friends two u everything good really doors voice dropped get kidding door set open dieing help time rhis patience since armor auto disappointed find one messed give would seriously dont slowly opening keep games missing started enjoy got new tag update bullets cant supplies</t>
-  </si>
-  <si>
-    <t>andrew jordan</t>
-  </si>
-  <si>
-    <t>371</t>
-  </si>
-  <si>
-    <t>tip maintaining gaming im go play even rating fashion team ending getting futuristic good hooked war without old thank get mode always least console release since idea work last zombie pubg thanks yes dont excellent probably keeping unrealistic keep perfect ive every suprises still experience 2018 update buy fingers march never mind</t>
-  </si>
-  <si>
-    <t>Devil May Cry</t>
-  </si>
-  <si>
-    <t>im game players even also youre spectate cool gives option world learn g monster alot really get resident killed normally lickers take think pubg killer fun evil 2 love birkin ive zombies taking mr around awesome shooters location whenever x shows william</t>
-  </si>
-  <si>
-    <t>S S</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>year fight chatting game discovered told showing couple downloaded happy commun verge almost always havent since playing somthing thought thanks pubg asked found usual woman started finnaly wrong awesome ago divorce wife another phone</t>
-  </si>
-  <si>
-    <t>1303</t>
-  </si>
-  <si>
-    <t>shooting expectations go game amazing plus exceed fact quit challenging great time always one space review killer graphics content fun download best games matter mobile still new wasting reading updates</t>
-  </si>
-  <si>
-    <t>Tahmid Rohan</t>
-  </si>
-  <si>
-    <t>1418</t>
-  </si>
-  <si>
-    <t>please using game play players mic disturbing loved good permanent skin loving great time mode report hack work immedietly take music addicting request zombie thought pass arcade green care player hacks keep youtube matter guys make fan respond see new update mod turn pls</t>
-  </si>
-  <si>
-    <t>makoto iriya</t>
-  </si>
-  <si>
-    <t>needs third game says even sometimes went middle automatically screen door open get like auto back sirmaam tho choppy freezes suddenly became fixed fourth wont forcibly crashed lag second turned first issues still new though black update need okay gameplay phone</t>
-  </si>
-  <si>
-    <t>Nikhil Tiwari</t>
-  </si>
-  <si>
-    <t>game players also problems regarding bugs especially played vikendi use voice ping size high map always file enemies classic latest didnt ever experienced pubg opinion scrap completed mark twice best coupon ive increasing mobiles mobile others got surveys supplies still experience update reward problem ahead</t>
-  </si>
-  <si>
-    <t>Jaggu Rox</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>please function go game u moves cheers lagging played necer far soon mode fix lobby theres ever zombie loading restart best prob keep fixed ive event multiplayer forward new gets stuck update</t>
-  </si>
-  <si>
-    <t>Hetal Thacker</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>much erangelsanhok game also friends thing 3 good maps get time map like knowledge playing one miramar pubg three graphics likely download best spending mobile guns superb vikeindi brothers another</t>
+    <t>services better waiting way times facing works paytm bank wallet care paying dumb 20 using issues hold well solution app came pay customer make major crashes pathetic spite 10 google never payment gave features us mins</t>
+  </si>
+  <si>
+    <t>Aap Kkok</t>
+  </si>
+  <si>
+    <t>time says operater please paytm application kyc use business company ur rejecting deposite customer service fraud excuse make money updated take hours 24 live give talk u account payment keep want dont</t>
+  </si>
+  <si>
+    <t>one girl</t>
+  </si>
+  <si>
+    <t>time way query finally delete preset wasnt representative voice app recorded replated customer service receive take days dont messages replytook account lot 23 option reply send pre answers horrible respond messaging wanted contact useful</t>
   </si>
 </sst>
 </file>
@@ -1160,16 +1085,16 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1177,22 +1102,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1200,22 +1125,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1223,22 +1148,22 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1246,22 +1171,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1269,22 +1194,22 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1292,22 +1217,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1315,22 +1240,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1338,10 +1263,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1350,10 +1275,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1361,22 +1286,22 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
         <v>47</v>
-      </c>
-      <c r="G13" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1384,22 +1309,22 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>50</v>
-      </c>
-      <c r="G14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1407,19 +1332,19 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
       </c>
       <c r="G15" t="s">
         <v>53</v>
@@ -1430,10 +1355,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1442,10 +1367,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1453,22 +1378,22 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1476,10 +1401,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1488,10 +1413,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1499,22 +1424,22 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1522,22 +1447,22 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1545,22 +1470,22 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1568,22 +1493,22 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1591,16 +1516,16 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
         <v>79</v>
@@ -1640,19 +1565,19 @@
         <v>84</v>
       </c>
       <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
         <v>85</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1660,10 +1585,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -1672,10 +1597,10 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1683,22 +1608,22 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
         <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1706,22 +1631,22 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1729,22 +1654,22 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1752,22 +1677,22 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1775,22 +1700,22 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1798,22 +1723,22 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
         <v>104</v>
       </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>105</v>
-      </c>
-      <c r="G32" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1821,22 +1746,22 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" t="s">
         <v>107</v>
-      </c>
-      <c r="C33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1844,22 +1769,22 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1867,22 +1792,22 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" t="s">
         <v>112</v>
-      </c>
-      <c r="C35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1890,10 +1815,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -1902,10 +1827,10 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1913,10 +1838,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -1925,10 +1850,10 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G37" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1936,22 +1861,22 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1959,22 +1884,22 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1982,10 +1907,10 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -1994,10 +1919,10 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2005,22 +1930,22 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G41" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2028,22 +1953,22 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2051,22 +1976,22 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2074,22 +1999,22 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2097,22 +2022,22 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2120,22 +2045,22 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2143,22 +2068,22 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G47" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2166,10 +2091,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -2178,10 +2103,10 @@
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G48" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2189,22 +2114,22 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="F49" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2212,22 +2137,22 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G50" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2235,22 +2160,22 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="F51" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2258,10 +2183,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -2270,10 +2195,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G52" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2281,22 +2206,22 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2304,22 +2229,22 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G54" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2327,10 +2252,10 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -2339,10 +2264,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="G55" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2350,22 +2275,22 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="F56" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="G56" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2373,22 +2298,22 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="G57" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2396,22 +2321,22 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G58" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2419,22 +2344,22 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2442,22 +2367,22 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="F60" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="G60" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2465,22 +2390,22 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="G61" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2488,10 +2413,10 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C62" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -2500,10 +2425,10 @@
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="G62" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2511,22 +2436,22 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F63" t="s">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2534,22 +2459,22 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2557,22 +2482,22 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>206</v>
+        <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2580,10 +2505,10 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -2592,10 +2517,10 @@
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c r="G66" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2603,22 +2528,22 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="C67" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="E67" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2626,22 +2551,22 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2649,22 +2574,22 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="G69" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2672,22 +2597,22 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>196</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="G70" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2695,10 +2620,10 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -2707,10 +2632,10 @@
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2718,22 +2643,22 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="G72" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2741,22 +2666,22 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c r="G73" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2764,22 +2689,22 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="G74" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2787,22 +2712,22 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="G75" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2810,22 +2735,22 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="G76" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2833,22 +2758,22 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="G77" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2856,22 +2781,22 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D78" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="E78" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2879,22 +2804,22 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="D79" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="G79" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2902,22 +2827,22 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="D80" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="G80" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2925,22 +2850,22 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="G81" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/app_reviews/outputs/result.xlsx
+++ b/app_reviews/outputs/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
   <si>
     <t>reviewer_name</t>
   </si>
@@ -38,10 +38,10 @@
     <t>new</t>
   </si>
   <si>
-    <t>Rahul Raghav</t>
-  </si>
-  <si>
-    <t>January 28, 2019</t>
+    <t>Sagar Raj</t>
+  </si>
+  <si>
+    <t>11 March 2019</t>
   </si>
   <si>
     <t>Rated 2 stars out of five stars</t>
@@ -50,31 +50,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>4089</t>
-  </si>
-  <si>
-    <t>used show feature daily updates apps advertisement change day contain many status time 100 railway saving useful showed whenever advertisements give travel previously app deal back automatically train pnr notification today even five stopped protocol stars without bring official save pnrs good</t>
-  </si>
-  <si>
-    <t>used show feature daily updates apps advertisement change day contain many status time 100 railway saving useful showed whenever advertisements give travel previously  deal back automatically  pnr notification today even five stopped protocol stars without bring official save pnrs good</t>
-  </si>
-  <si>
-    <t>Bijesh Krishnankutty</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>different system anyways inside site superb dont interface intentionally station like looks thanks compartment palm big changing killing benifitting app kind night removed update team 2 friendly traveling star checking pnr always even tracking diverting outside peep nowadays features need user wished good display</t>
-  </si>
-  <si>
-    <t>different system anyways inside site superb dont interface intentionally station like looks thanks compartment palm big changing killing benifitting  kind night removed update team 2 friendly traveling star checking pnr always even tracking diverting outside peep nowadays features need user wished good display</t>
-  </si>
-  <si>
-    <t>Ameya Maharana</t>
-  </si>
-  <si>
-    <t>March 1, 2019</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>hazard best tests pressure way bot wallets also finding bypass payment great high heart claims luck risk although seemingly susceptible digibank chat virtual extent blood real health incentives patience using attacks</t>
+  </si>
+  <si>
+    <t>hazard best tests pressure way bot wallets also finding bypass payment great high heart claims luck risk although seemingly susceptible  chat virtual extent blood real health incentives patience using attacks</t>
+  </si>
+  <si>
+    <t>VINAYAK KADAM</t>
   </si>
   <si>
     <t>Rated 3 stars out of five stars</t>
@@ -83,19 +68,19 @@
     <t>3</t>
   </si>
   <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>redirected version gives site seat many available older time needs information like expected railway also one get wrong great app see experience friendly train lots pnr old use indian improvement accuracy availability details earlier etc missleads provided takes user seats good hope</t>
-  </si>
-  <si>
-    <t>redirected version gives site seat many available older time needs information like expected railway also one get wrong great  see experience friendly  lots pnr old use indian improvement accuracy availability details earlier etc missleads provided takes user seats good hope</t>
-  </si>
-  <si>
-    <t>Astitva Srivastava</t>
-  </si>
-  <si>
-    <t>January 20, 2019</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>shown smoothly hectic reacharge make want recharge otherwise amount concept times app list oh says error improve plan using valid nice enter things many trying</t>
+  </si>
+  <si>
+    <t>shown smoothly hectic reacharge make want recharge otherwise amount concept times  list oh says error improve plan using valid nice enter things many trying</t>
+  </si>
+  <si>
+    <t>Arun Saxena</t>
+  </si>
+  <si>
+    <t>4 March 2019</t>
   </si>
   <si>
     <t>Rated 5 stars out of five stars</t>
@@ -104,928 +89,640 @@
     <t>5</t>
   </si>
   <si>
-    <t>8213</t>
-  </si>
-  <si>
-    <t>salute seen millions accurate serve data seat status reads stops information works thanks hence railways railway also developers ntes get idea thing best depending speedometer app people location take liked sequence everything train server rather awesome pnr ever tracking details coach another working stations exact sms</t>
-  </si>
-  <si>
-    <t>salute seen millions accurate serve data seat status reads stops information works thanks hence railways railway also developers ntes get idea thing best depending speedometer  people location take liked sequence everything  server rather awesome pnr ever tracking details coach another working stations exact sms</t>
-  </si>
-  <si>
-    <t>Sitadevi Muthkhod</t>
-  </si>
-  <si>
-    <t>March 7, 2019</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>fingerfrint thanks unable working wrong 4 reset times details app account needs login password upgrade complete shows dbs always scanning fine mu</t>
+  </si>
+  <si>
+    <t>fingerfrint thanks unable working wrong 4 reset times details  account needs login password upgrade complete shows  always scanning fine mu</t>
+  </si>
+  <si>
+    <t>ashish athalye</t>
+  </si>
+  <si>
+    <t>10 March 2019</t>
+  </si>
+  <si>
+    <t>self fees also kindly withdrawls mumbai app limit trouble update location mentioned navimumbai withdrawl lot done free mention placed atm logging charging dbs heavy stipulated gives transaction</t>
+  </si>
+  <si>
+    <t>self fees also kindly withdrawls mumbai  limit trouble update location mentioned navimumbai withdrawl lot done free mention placed atm logging charging  heavy stipulated gives transaction</t>
+  </si>
+  <si>
+    <t>Benson Gomez</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>travelled comes feature accurate platform distance recommended internet time important station get best express app trackin departure travelling train intermediate ads n alarm trains helpful personally know pantry especially ive instantly without handy well friends part updated theres arrival car stations miss estimated</t>
-  </si>
-  <si>
-    <t>travelled comes feature accurate platform distance recommended internet time important station get best express  trackin departure travelling  intermediate ads n alarm trains helpful personally know pantry especially ive instantly without handy well friends part updated theres arrival car stations miss estimated</t>
-  </si>
-  <si>
-    <t>Jayanth Jayaprakash</t>
-  </si>
-  <si>
-    <t>1519</t>
-  </si>
-  <si>
-    <t>parents service live cheers reach highly wish unpredictable time important station loved railway excellent useful developers ones metro actual instead waiting bus app location update helps train sharing trains use mmts friend local driver work wasting arrival extend services</t>
-  </si>
-  <si>
-    <t>parents service live cheers reach highly wish unpredictable time important station loved railway excellent useful developers ones metro actual instead waiting bus  location update helps  sharing trains use mmts friend local driver work wasting arrival extend services</t>
+    <t>clear memory completely close background slow compared app everytime recent banking button exist apps</t>
+  </si>
+  <si>
+    <t>clear memory completely close background slow compared  everytime recent  button exist apps</t>
+  </si>
+  <si>
+    <t>Teeds Chauhan</t>
+  </si>
+  <si>
+    <t>6 March 2019</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>registered upi unavailable number later want 10 times app registering server show money register time end many asking charging try already charge 150rs</t>
+  </si>
+  <si>
+    <t>registered upi unavailable number later want 10 times  registering server show money register time end many asking charging try already charge 150rs</t>
+  </si>
+  <si>
+    <t>Mrityunjaya Paniquar</t>
+  </si>
+  <si>
+    <t>9 March 2019</t>
+  </si>
+  <si>
+    <t>Rated 4 stars out of five stars</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>later difficulty great however whims updates app one ever initially digibank swidt card wnjoying promotions well featurea beilliant oblige dbs year many faored</t>
+  </si>
+  <si>
+    <t>later difficulty great however whims updates  one ever initially  swidt card wnjoying promotions well featurea beilliant oblige  year many faored</t>
+  </si>
+  <si>
+    <t>Neel Sarkar</t>
+  </si>
+  <si>
+    <t>Rated 1 stars out of five stars</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>spend get denied 1000 offer diwali claimed spender iphone said give 20000 top</t>
   </si>
   <si>
     <t>A Google user</t>
   </si>
   <si>
-    <t>January 29, 2019</t>
-  </si>
-  <si>
-    <t>Rated 4 stars out of five stars</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>right would accurate timings behind could realised interface arrivaldeparture information congrats also late ntes minute giving give doesnt bang best cleaner journey great app team train info cancelleddiverteddelayed trains plan details two regular well shifted stations user regarding nice</t>
-  </si>
-  <si>
-    <t>right would accurate timings behind could realised interface arrivaldeparture information congrats also late ntes minute giving give doesnt bang best cleaner journey great  team  info cancelleddiverteddelayed trains plan details two regular well shifted stations user regarding nice</t>
-  </si>
-  <si>
-    <t>Ahamed Abdul Rahman</t>
-  </si>
-  <si>
-    <t>January 14, 2019</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>read alert restore inbox day status journeys suggestion webapp case railways please one get giving opening might app update sown latest functionality pnr old upcoming keep amazing earlier stars work permission 4 edit1 inboxmail user message good</t>
-  </si>
-  <si>
-    <t>read alert restore inbox day status journeys suggestion webapp case railways please one get giving opening might  update sown latest functionality pnr old upcoming keep amazing earlier stars work permission 4 edit1 inboxmail user message good</t>
-  </si>
-  <si>
-    <t>March 9, 2019</t>
-  </si>
-  <si>
-    <t>Rated 1 stars out of five stars</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>accurate timing version apps 1 reach destination rate day status general station early information correct get extremely give app reversing friendly star train old worst even improvement updated 5 running user good detoriates</t>
-  </si>
-  <si>
-    <t>accurate timing version apps 1 reach destination rate day status general station early information correct get extremely give  reversing friendly star  old worst even improvement updated 5 running user good detoriates</t>
-  </si>
-  <si>
-    <t>January 23, 2019</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>2s live show booked travellers accurate exlent overall soon find bcs 123 available time station side coming arrived 4rating useful appeasy app location started see update train ended checking trian trains helpful accuracy coach trianvery public reservations tickets seats</t>
-  </si>
-  <si>
-    <t>2s live show booked travellers accurate exlent overall soon find bcs 123 available time station side coming arrived 4rating useful appeasy  location started see update  ended checking trian trains helpful accuracy coach trianvery public reservations tickets seats</t>
-  </si>
-  <si>
-    <t>Indrajit Neogi</t>
-  </si>
-  <si>
-    <t>January 19, 2019</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>used way different moves cell interface view innovative fix ntes please one browse tower best app couldnt changed using easy ever hats step tracking earlier two stars look seats adding</t>
-  </si>
-  <si>
-    <t>used way different moves cell interface view innovative fix ntes please one browse tower best  couldnt changed using easy ever hats step tracking earlier two stars look seats adding</t>
-  </si>
-  <si>
-    <t>Rajiv Daga</t>
-  </si>
-  <si>
-    <t>January 27, 2019</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>would popup data gives 1 apps beautiful backed wish still sync website question phone redirects irctc app 2 simple perfect option missing options math change answer</t>
-  </si>
-  <si>
-    <t>would popup data gives 1 apps beautiful backed wish still sync website question phone redirects irctc  2 simple perfect option missing options math change answer</t>
-  </si>
-  <si>
-    <t>Anirudh Madiq</t>
-  </si>
-  <si>
-    <t>February 16, 2019</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>due live accurate status gave creators railways bonus please one best give ill 3 app update back revert train ads kudos awesome pnr checking original mishap indian difficult tracking earlier stars well done 5</t>
-  </si>
-  <si>
-    <t>due live accurate status gave creators railways bonus please one best give ill 3  update back revert  ads kudos awesome pnr checking original mishap indian difficult tracking earlier stars well done 5</t>
-  </si>
-  <si>
-    <t>March 6, 2019</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>show platform find every suggestion fill important trust everyone doesnt app location train rather easy passenger local faster advice friends life aap</t>
-  </si>
-  <si>
-    <t>show platform find every suggestion fill important trust everyone doesnt  location  rather easy passenger local faster advice friends life aap</t>
-  </si>
-  <si>
-    <t>Karthikpandian Kanagathiruvengadam</t>
-  </si>
-  <si>
-    <t>January 18, 2019</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>speed reasons every spot time go recent need one better book meter locations app update take ststus helps train link pnr delay step trains days another try crossing local etc calculation usefull updated next arrival tickets wake good</t>
-  </si>
-  <si>
-    <t>speed reasons every spot time go recent need one better book meter locations  update take ststus helps  link pnr delay step trains days another try crossing local etc calculation usefull updated next arrival tickets wake good</t>
-  </si>
-  <si>
-    <t>samir das</t>
-  </si>
-  <si>
-    <t>February 15, 2019</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>hasslefree indians cell creating definitely beloved internet situation word properly one okla tower great dependent experience problem kindly everytime know fantabulous enjoying working indias country something guys</t>
-  </si>
-  <si>
-    <t>Kevin John</t>
-  </si>
-  <si>
-    <t>February 9, 2019</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>till way comes hour wait reach destination arriving half time much long one get appi app night shows train actually today real passenger satisfied next face lost frequent user canceled</t>
-  </si>
-  <si>
-    <t>till way comes hour wait reach destination arriving half time much long one get appi  night shows  actually today real passenger satisfied next face lost frequent user canceled</t>
-  </si>
-  <si>
-    <t>February 3, 2019</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>show recomended diverted request pick stand platform many confuse highly like information correct away arrived stn thanks please one everyones fail wrong app update issues train info always coz use users help acc wrongkindly sometime without follow need resolve second good</t>
-  </si>
-  <si>
-    <t>show recomended diverted request pick stand platform many confuse highly like information correct away arrived stn thanks please one everyones fail wrong  update issues  info always coz use users help acc wrongkindly sometime without follow need resolve second good</t>
-  </si>
-  <si>
-    <t>CHANDAN KUMAR SINGH</t>
-  </si>
-  <si>
-    <t>February 20, 2019</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>love id interface like listed long required one havent guys thing actual express app loving started new vande using nice train point easy bharat use informations say 18 access services</t>
-  </si>
-  <si>
-    <t>love id interface like listed long required one havent guys thing actual express  loving started new vande using nice  point easy bharat use informations say 18 access services</t>
-  </si>
-  <si>
-    <t>5162</t>
-  </si>
-  <si>
-    <t>version apps many status time like excellent give exceptional waste update app new 2 star nice pnr check old sorking difficult working save 5 user good</t>
-  </si>
-  <si>
-    <t>version apps many status time like excellent give exceptional waste update  new 2 star nice pnr check old sorking difficult working save 5 user good</t>
-  </si>
-  <si>
-    <t>Naveen Narra</t>
-  </si>
-  <si>
-    <t>February 5, 2019</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>due refresh recognize android feature version whereismytrain 1 ability messages going status many still dont updating come enquiry information button case works question also irctc app manually issues new latest experience 2 fixed star broken prefer pnr always example passenger enhanced earlier reservation seamlessly user rating working screen bookings 5 features deserves requiring enter railyatri sms capthca</t>
-  </si>
-  <si>
-    <t>due refresh recognize android feature version whereismytrain 1 ability messages going status many still dont updating come enquiry information button case works question also irctc  manually issues new latest experience 2 fixed star broken prefer pnr always example passenger enhanced earlier reservation seamlessly user rating working screen bookings 5 features deserves requiring enter railyatri sms capthca</t>
-  </si>
-  <si>
-    <t>Mubasshir Khumusi</t>
-  </si>
-  <si>
-    <t>February 12, 2019</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>different feature version changes questions precious time go else intentionally website promote previous irritating developers ntes waste degrading update app reshifting new capcha revert awesome old worst avtive diverting useless done features getting</t>
-  </si>
-  <si>
-    <t>different feature version changes questions precious time go else intentionally website promote previous irritating developers ntes waste degrading update  reshifting new capcha revert awesome old worst avtive diverting useless done features getting</t>
-  </si>
-  <si>
-    <t>Manoj Neeli</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>updared good bettr saves somewhat tctks concluding status board updating enquiry railway also one showed finally app page directly new take 2 train pnr checking old check times difficult tc according confirms nd nice</t>
-  </si>
-  <si>
-    <t>updared good bettr saves somewhat tctks concluding status board updating enquiry railway also one showed finally  page directly new take 2  pnr checking old check times difficult tc according confirms nd nice</t>
-  </si>
-  <si>
-    <t>nityanand pandey</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>way would feature single revamped classes table data timings 1 could bad month replicate website non terminating provide boring giving last actual found yrains irctc bw changed problem 2 friendly info months trains delays days another earlier two observed screen nature stations features user seats</t>
-  </si>
-  <si>
-    <t>Rahul Mehra</t>
-  </si>
-  <si>
-    <t>January 13, 2019</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>due showing yet problems live many status still dont raipur expected departed programmed faced express since crossed app 18804 already using hasedo train months created tildathis lot pre think recommendable confusion</t>
-  </si>
-  <si>
-    <t>due showing yet problems live many status still dont raipur expected departed programmed faced express since crossed  18804 already using hasedo  months created tildathis lot pre think recommendable confusion</t>
-  </si>
-  <si>
-    <t>Devasheesh Pandav</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>developing right accurate updates gives exact thay place dont youre like thanks believe great app directly connected hey youve say know stupendofantabulouslyfantastical pilots loco made guys told</t>
-  </si>
-  <si>
-    <t>developing right accurate updates gives exact thay place dont youre like thanks believe great  directly connected hey youve say know stupendofantabulouslyfantastical pilots loco made guys told</t>
-  </si>
-  <si>
-    <t>Sudersanan Ponathil</t>
-  </si>
-  <si>
-    <t>February 10, 2019</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>course sometimes accurate status essential position also everyone tedious giving journey entire app location update team process star thank checking pnr inaccurate provides application coach wonderful work 5 need</t>
-  </si>
-  <si>
-    <t>course sometimes accurate status essential position also everyone tedious giving journey entire  location update team process star thank checking pnr inaccurate provides application coach wonderful work 5 need</t>
-  </si>
-  <si>
-    <t>Sai Reddy</t>
-  </si>
-  <si>
-    <t>March 10, 2019</t>
-  </si>
-  <si>
-    <t>comes service interval terms updates platform fully many time station like information must departed one trending thing actual give crossed app operator machanism new particular traveling train mostly management helpful determine suggest total told requires</t>
-  </si>
-  <si>
-    <t>comes service interval terms updates platform fully many time station like information must departed one trending thing actual give crossed  operator machanism new particular traveling  mostly management helpful determine suggest total told requires</t>
-  </si>
-  <si>
-    <t>TANMAY DEY</t>
-  </si>
-  <si>
-    <t>February 24, 2019</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>dislike version redirect annoying site taking us spite really time much go like loved website necessary railway previous operation useful ntes one calculations hazard linked app directly new using isnt easy indian wouldnt disappointed unnecessary</t>
-  </si>
-  <si>
-    <t>dislike version redirect annoying site taking us spite really time much go like loved website necessary railway previous operation useful ntes one calculations hazard linked  directly new using isnt easy indian wouldnt disappointed unnecessary</t>
-  </si>
-  <si>
-    <t>K S Sanish</t>
-  </si>
-  <si>
-    <t>February 18, 2019</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>cool show seen feature daily updates apps internet really time spot mumbai correct better express app update using train trains helpful even stopped local without working however</t>
-  </si>
-  <si>
-    <t>cool show seen feature daily updates apps internet really time spot mumbai correct better express  update using  trains helpful even stopped local without working however</t>
-  </si>
-  <si>
-    <t>Jayant Kumar</t>
-  </si>
-  <si>
-    <t>January 22, 2019</t>
-  </si>
-  <si>
-    <t>thought pity live feel beautiful status degraded graded really acquired website got linking responsive better processing connecting previously app except possible train upgrading google rather use aquired hate running search</t>
-  </si>
-  <si>
-    <t>thought pity live feel beautiful status degraded graded really acquired website got linking responsive better processing connecting previously  except possible  upgrading google rather use aquired hate running search</t>
-  </si>
-  <si>
-    <t>Deepak Varshney</t>
-  </si>
-  <si>
-    <t>beas show showing yesterday image diversion 060319 jalandhar diverted reach sites came time station searched reaching 11058 amritsar city app experience 2 train google times know two recently noticed next stations good</t>
-  </si>
-  <si>
-    <t>beas show showing yesterday image diversion 060319 jalandhar diverted reach sites came time station searched reaching 11058 amritsar city  experience 2  google times know two recently noticed next stations good</t>
-  </si>
-  <si>
-    <t>Venkadesan N</t>
-  </si>
-  <si>
-    <t>January 12, 2019</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>among used good would data review definitely general route like inconvenience frequently chance also railway limited get implemented understand app may particular publics train trains delayed improvement tracking unless especially shared 16130 public routes getting shown punctuality</t>
-  </si>
-  <si>
-    <t>among used good would data review definitely general route like inconvenience frequently chance also railway limited get implemented understand  may particular publics  trains delayed improvement tracking unless especially shared 16130 public routes getting shown punctuality</t>
-  </si>
-  <si>
-    <t>Shwdeep SK</t>
-  </si>
-  <si>
-    <t>February 22, 2019</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>among different saysindian seat spot enquiry railway also cud book great page class quota anything select tab pnr check tabs r use option availability try unable well input routes wud seats good</t>
-  </si>
-  <si>
-    <t>Gayatri Kashyap</t>
-  </si>
-  <si>
-    <t>February 26, 2019</t>
-  </si>
-  <si>
-    <t>version apps changes consuming older scope every designed spot quite calculator time congratulation works irritating one machinery app hardly train baboos pnr worst example keep sarkari reservation etc query government make classic features need good</t>
-  </si>
-  <si>
-    <t>version apps changes consuming older scope every designed spot quite calculator time congratulation works irritating one machinery  hardly  baboos pnr worst example keep sarkari reservation etc query government make classic features need good</t>
-  </si>
-  <si>
-    <t>Kalyani -</t>
-  </si>
-  <si>
-    <t>February 11, 2019</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>free mobile consuming seat every time stupid gonna asks calculations give understand update numbers app new everything laptop pnr checking worst use uninstall answer good</t>
-  </si>
-  <si>
-    <t>free mobile consuming seat every time stupid gonna asks calculations give understand update numbers  new everything laptop pnr checking worst use uninstall answer good</t>
-  </si>
-  <si>
-    <t>Zubin Divecha</t>
-  </si>
-  <si>
-    <t>January 25, 2019</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>ui feature timings inside mumbaidelhi reliable status navigate ask really time like laggy better integrations commuter helps u train pnr easy helpful local reservation regular integrated updated saver</t>
-  </si>
-  <si>
-    <t>ui feature timings inside mumbaidelhi reliable status navigate ask really time like laggy better integrations commuter helps u  pnr easy helpful local reservation regular integrated updated saver</t>
-  </si>
-  <si>
-    <t>Guru Prasad</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>showing yet min first loation start pick properly improve 30 middle waste waiting app location started update already using train point always worst say two need</t>
-  </si>
-  <si>
-    <t>showing yet min first loation start pick properly improve 30 middle waste waiting  location started update already using  point always worst say two need</t>
-  </si>
-  <si>
-    <t>February 23, 2019</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>area bottles image supposed around authority us clean side clear railway premier entering jn tracks concerned train emergency keep helpful plastics dumped horriblethis updated itarasi junctioneither takes garbage steps hope</t>
-  </si>
-  <si>
-    <t>area bottles image supposed around authority us clean side clear railway premier entering jn tracks concerned  emergency keep helpful plastics dumped horriblethis updated itarasi junctioneither takes garbage steps hope</t>
-  </si>
-  <si>
-    <t>SAYANTAN BISWAS</t>
-  </si>
-  <si>
-    <t>show correct main emu knj usually kolkata stop departure galloping train 1737 today north happen sdah bxnr details suburban local line miss 31835 division</t>
-  </si>
-  <si>
-    <t>show correct main emu knj usually kolkata stop departure galloping  1737 today north happen sdah bxnr details suburban local line miss 31835 division</t>
-  </si>
-  <si>
-    <t>Priyanka Das</t>
-  </si>
-  <si>
-    <t>98 problems timing timings board available time station expected otherwise properly actual doesnt irctc app update staff train pnr awesome upcoming alarm use even rings option accuracy two almost work well save stations</t>
-  </si>
-  <si>
-    <t>98 problems timing timings board available time station expected otherwise properly actual doesnt irctc  update staff  pnr awesome upcoming alarm use even rings option accuracy two almost work well save stations</t>
-  </si>
-  <si>
-    <t>naresh kharat</t>
-  </si>
-  <si>
-    <t>January 15, 2019</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>would feature commuters introduce reach suggestion passing alot station stops non crosses thanks must eg inform great app stop pass team train info kudos help another amazing crossing suggest x user hope</t>
-  </si>
-  <si>
-    <t>would feature commuters introduce reach suggestion passing alot station stops non crosses thanks must eg inform great  stop pass team  info kudos help another amazing crossing suggest x user hope</t>
-  </si>
-  <si>
-    <t>R. F. Tushar</t>
-  </si>
-  <si>
-    <t>open consume issue find three time much enquiry website like fix looks railways also please give best rubbish app window new saction train types indian availability amazing stars want 5 seet</t>
-  </si>
-  <si>
-    <t>open consume issue find three time much enquiry website like fix looks railways also please give best rubbish  window new saction  types indian availability amazing stars want 5 seet</t>
-  </si>
-  <si>
-    <t>rohit garg</t>
-  </si>
-  <si>
-    <t>February 8, 2019</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>toady 2346 lasts seen hello remove timing aprox dont suggestion covered route fastly long also late happiness please one giving last journey app departure star mostly kindly application trains indian aslo use hours feedback thinking driver enjoying lot 5 stations sirmam think good</t>
-  </si>
-  <si>
-    <t>toady 2346 lasts seen hello remove timing aprox dont suggestion covered route fastly long also late happiness please one giving last journey  departure star mostly kindly application trains indian aslo use hours feedback thinking driver enjoying lot 5 stations sirmam think good</t>
-  </si>
-  <si>
-    <t>rama raju v</t>
-  </si>
-  <si>
-    <t>whether number current platform seat find time quite frequently also useful late one giving travel lets app location hesitate travelling trains coach know stars besides 5 running</t>
-  </si>
-  <si>
-    <t>whether number current platform seat find time quite frequently also useful late one giving travel lets  location hesitate travelling trains coach know stars besides 5 running</t>
-  </si>
-  <si>
-    <t>Prasenjit Ghosh</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>charm updates annoying request grown seat status came responding nuisance come like functions ire last connecting since app anymore update everything using causing specially checking pnr isnt fine availability birth working need large</t>
-  </si>
-  <si>
-    <t>charm updates annoying request grown seat status came responding nuisance come like functions ire last connecting since  anymore update everything using causing specially checking pnr isnt fine availability birth working need large</t>
-  </si>
-  <si>
-    <t>February 28, 2019</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>till reply current 1 questions redirecting seat status came going api dont bad month sure also excellent ntes last navigation acquisition changing app page star restrictions anything train pnr google check offline use availability feedback know unable 5 asked</t>
-  </si>
-  <si>
-    <t>till reply current 1 questions redirecting seat status came going api dont bad month sure also excellent ntes last navigation acquisition changing  page star restrictions anything  pnr google check offline use availability feedback know unable 5 asked</t>
-  </si>
-  <si>
-    <t>Jiss Jayan</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>showing start time station arrived late 9th 12617 worried tissur reached form app started commuter already using train misleading origin even tracking hours feb regular 4 515pm uninstalling</t>
-  </si>
-  <si>
-    <t>showing start time station arrived late 9th 12617 worried tissur reached form  started commuter already using  misleading origin even tracking hours feb regular 4 515pm uninstalling</t>
-  </si>
-  <si>
-    <t>Sandeep Kumar</t>
-  </si>
-  <si>
-    <t>saves lesson site many highly time railways useful recommend faced app take problem goes train times regularly indian tracking stars passengers official updated 5 deserves</t>
-  </si>
-  <si>
-    <t>saves lesson site many highly time railways useful recommend faced  take problem goes  times regularly indian tracking stars passengers official updated 5 deserves</t>
-  </si>
-  <si>
-    <t>JAINENDER KUMAR</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>updation requesting love soon platform difficulties status many facing interface time quit response quick like information fix gonna also developers please wrong waiting app possible train im checking pnr delay days etc disappointed</t>
-  </si>
-  <si>
-    <t>updation requesting love soon platform difficulties status many facing interface time quit response quick like information fix gonna also developers please wrong waiting  possible  im checking pnr delay days etc disappointed</t>
-  </si>
-  <si>
-    <t>Mainak Nandi</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>gives apps inside kilometres concept common dont position time like case hence railways approximate switched one best tracks app train gps always ever delay indian helpful even travelers ofcourse especially passengers aware exact</t>
-  </si>
-  <si>
-    <t>gives apps inside kilometres concept common dont position time like case hence railways approximate switched one best tracks   gps always ever delay indian helpful even travelers ofcourse especially passengers aware exact</t>
-  </si>
-  <si>
-    <t>Mahantesh Guruvinamath</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>ui web free mobile redirecting seat based enquiry fix unique please idea difficulty needed instead since app pure problem train check availability help seats good cost</t>
-  </si>
-  <si>
-    <t>ui web free mobile redirecting seat based enquiry fix unique please idea difficulty needed instead since  pure problem  check availability help seats good cost</t>
-  </si>
-  <si>
-    <t>kundan bharti</t>
-  </si>
-  <si>
-    <t>March 8, 2019</t>
-  </si>
-  <si>
-    <t>showing yet went start inside ur connections station appit properly source giving tower 18621 wrong 3 app location started already u train 08032019 approx pm even downgrading stopped work exact</t>
-  </si>
-  <si>
-    <t>showing yet went start inside ur connections station appit properly source giving tower 18621 wrong 3  location started already u  08032019 approx pm even downgrading stopped work exact</t>
-  </si>
-  <si>
-    <t>Pranav Prasad</t>
-  </si>
-  <si>
-    <t>March 11, 2019</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>lovely number system accurate timing reasons network helped came time cluttered loved far best app experience accurately travelling train gps ads always alarm cellular support either almost handy locate useless features change</t>
-  </si>
-  <si>
-    <t>lovely number system accurate timing reasons network helped came time cluttered loved far best  experience accurately travelling  gps ads always alarm cellular support either almost handy locate useless features change</t>
-  </si>
-  <si>
-    <t>Sujeet Thakur</t>
-  </si>
-  <si>
-    <t>January 24, 2019</t>
-  </si>
-  <si>
-    <t>seat delhi time otherwise given attachment attached app may error new darbhanga train pls check worst option availability 3rd direct according shown checked</t>
-  </si>
-  <si>
-    <t>seat delhi time otherwise given attachment attached  may error new darbhanga  pls check worst option availability 3rd direct according shown checked</t>
-  </si>
-  <si>
-    <t>Mohit Gupta</t>
-  </si>
-  <si>
-    <t>February 2, 2019</t>
-  </si>
-  <si>
-    <t>showing data apps 1 request trusting many status trusted dont suggestion station cant information correct fetch got late please get last give wrong 6 reached update app hurriedly train paying 56 hours 15159 running false sources checked cost</t>
-  </si>
-  <si>
-    <t>showing data apps 1 request trusting many status trusted dont suggestion station cant information correct fetch got late please get last give wrong 6 reached update  hurriedly  paying 56 hours 15159 running false sources checked cost</t>
-  </si>
-  <si>
-    <t>Winston Chungath</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>show right 24 love india code time cant whole railway saving late app hrs train imagine real indian without life activate running cheat exact</t>
-  </si>
-  <si>
-    <t>show right 24 love india code time cant whole railway saving late  hrs  imagine real indian without life activate running cheat exact</t>
-  </si>
-  <si>
-    <t>Pt. M. N. Shastri</t>
-  </si>
-  <si>
-    <t>January 21, 2019</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>8 919814848352 problems tarvlinghusband study cardvashikaran free love 1 9 2nd 7 desired disputes like foreign jadutona 10 handspecialistforigen childless get note settle type 6 3 result solution hourshe enemy hours919814848352 2 wife family relationship marriagegreen etc 4 husband 5 business women distancelove related</t>
-  </si>
-  <si>
-    <t>suraj kankonkar</t>
-  </si>
-  <si>
-    <t>tym install open accurate 1 status facing spot go fix mean better den app mindicator page directly problem frnd train pls checking pnr google chrome thank 10x suggest home prblm say</t>
-  </si>
-  <si>
-    <t>tym install open accurate 1 status facing spot go fix mean better den  mindicator page directly problem frnd  pls checking pnr google chrome thank 10x suggest home prblm say</t>
-  </si>
-  <si>
-    <t>Chinna Rao Yadav</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>feature site redirecting day becoming every clock go like case railways app directly friendly worst use indian earlier working need user</t>
-  </si>
-  <si>
-    <t>feature site redirecting day becoming every clock go like case railways  directly friendly worst use indian earlier working need user</t>
-  </si>
-  <si>
-    <t>pradeep kumar</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>version 1 site redirecting seat given previous giving showed frustrating great previously app providing star info im trains availability another stars completely 5</t>
-  </si>
-  <si>
-    <t>version 1 site redirecting seat given previous giving showed frustrating great previously  providing star info im trains availability another stars completely 5</t>
-  </si>
-  <si>
-    <t>Anju Malik</t>
-  </si>
-  <si>
-    <t>booked opens terms 23 beforehand thereafter bcoz outstation platform stand board dont time come station stupid usage away 10 must notify rs app downloads take back u train counter tell clearly local ticket luggage useless outside 25 line</t>
-  </si>
-  <si>
-    <t>booked opens terms 23 beforehand thereafter bcoz outstation platform stand board dont time come station stupid usage away 10 must notify rs  downloads take back u  counter tell clearly local ticket luggage useless outside 25 line</t>
-  </si>
-  <si>
-    <t>Niranjan J</t>
-  </si>
-  <si>
-    <t>February 19, 2019</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>right peacefully feature data gives destination worry time excellent late wake best tracks app location sleep suoerb train alarm trains keep call precise accordingly arrival running need</t>
-  </si>
-  <si>
-    <t>right peacefully feature data gives destination worry time excellent late wake best tracks  location sleep suoerb  alarm trains keep call precise accordingly arrival running need</t>
-  </si>
-  <si>
-    <t>March 4, 2019</t>
-  </si>
-  <si>
-    <t>ac solve posdibility job inside status find unaware time tiresome go station like early thanks compartment also reaching useful food order boarding reached inconveniences app night travellors train times management option help know unless especially totally outside proper good</t>
-  </si>
-  <si>
-    <t>ac solve posdibility job inside status find unaware time tiresome go station like early thanks compartment also reaching useful food order boarding reached inconveniences  night travellors  times management option help know unless especially totally outside proper good</t>
-  </si>
-  <si>
-    <t>Bikash Nayak</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>sabotaged sometimes cell easily version start older internet much station stupid also better tower doesnt sets update present notification 1st sad unless mode bar say change</t>
-  </si>
-  <si>
-    <t>SALIN RAJ KAYANADATH</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>request proceed purpose given persists booking says app asap already problem pls real misleading stii feedback handset ticket rectify cannot change regarding</t>
-  </si>
-  <si>
-    <t>request proceed purpose given persists booking says  asap already problem pls real misleading stii feedback handset ticket rectify cannot change regarding</t>
-  </si>
-  <si>
-    <t>showing updates expecting seat favourite still tains befoe searched one better app update intermediate pnr checking drawback restored availability option store noticed done stations need good</t>
-  </si>
-  <si>
-    <t>showing updates expecting seat favourite still tains befoe searched one better  update intermediate pnr checking drawback restored availability option store noticed done stations need good</t>
-  </si>
-  <si>
-    <t>Venkatraman Mahadevan</t>
-  </si>
-  <si>
-    <t>ksr 615 1march2019 seem still somehow catches near gbd finally 11014 app lax wmt 2 train nearly pm believes hours left 620 poorly updated good</t>
-  </si>
-  <si>
-    <t>ksr 615 1march2019 seem still somehow catches near gbd finally 11014  lax wmt 2  nearly pm believes hours left 620 poorly updated good</t>
-  </si>
-  <si>
-    <t>February 1, 2019</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>cancelled version ability diverted seat status find older previous also get better give app nice train pnr trains details rightly stars want 4 chek good</t>
-  </si>
-  <si>
-    <t>cancelled version ability diverted seat status find older previous also get better give  nice  pnr trains details rightly stars want 4 chek good</t>
-  </si>
-  <si>
-    <t>Shaik Irfan</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>good 3a easily version asking dont became disadvantages handle like click please app convenient back cpatcha old worst types 2a use sl sorry everytime know bring updated hard access services</t>
-  </si>
-  <si>
-    <t>good 3a easily version asking dont became disadvantages handle like click please  convenient back cpatcha old worst types 2a use sl sorry everytime know bring updated hard access services</t>
-  </si>
-  <si>
-    <t>Niks c</t>
-  </si>
-  <si>
-    <t>February 17, 2019</t>
-  </si>
-  <si>
-    <t>earlier nobody increasing app reporting bugs remaining issues means become things complicated pnr status many months still even good attending</t>
-  </si>
-  <si>
-    <t>earlier nobody increasing  reporting bugs remaining issues means become things complicated pnr status many months still even good attending</t>
-  </si>
-  <si>
-    <t>Sindhu Pachipala</t>
-  </si>
-  <si>
-    <t>used show seats irctc like recently captcha directly coming website somewhat app shows also asking percentage phones trains use difficult</t>
-  </si>
-  <si>
-    <t>used show seats irctc like recently captcha directly coming website somewhat  shows also asking percentage phones trains use difficult</t>
-  </si>
-  <si>
-    <t>Sailesh Pokhriyal</t>
-  </si>
-  <si>
-    <t>March 5, 2019</t>
-  </si>
-  <si>
-    <t>problems timings arrive every born travels track relatives whenever makes express app location stop easy always keep trains local want brought updated next provided mumbaikar need exact second</t>
-  </si>
-  <si>
-    <t>problems timings arrive every born travels track relatives whenever makes express  location stop easy always keep trains local want brought updated next provided mumbaikar need exact second</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>jitna ho tha solve achchha yar v kchra kyon locha dekhne ka ko bhut thacaptcha app aapka problem dikkat h diye simple hoseat utna hota hi plz kr</t>
-  </si>
-  <si>
-    <t>jitna ho tha solve achchha yar v kchra kyon locha dekhne ka ko bhut thacaptcha  aapka problem dikkat h diye simple hoseat utna hota hi plz kr</t>
-  </si>
-  <si>
-    <t>SASMITA DAS</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>ac seen berth start ask bad go station toilet starting dirty sleep experience process morning u toilets ever use tomorrow tc cleaning life told</t>
-  </si>
-  <si>
-    <t>show different open feature version site availaibility seat many time information fare add railway one timeso best give waste update new star train check old worst indian without direct crisafter 5 think</t>
-  </si>
-  <si>
-    <t>show different open feature version site availaibility seat many time information fare add railway one timeso best give waste update new star  check old worst indian without direct crisafter 5 think</t>
-  </si>
-  <si>
-    <t>HelloAbhi</t>
-  </si>
-  <si>
-    <t>yet approaching cell accurate current seat amazingly find internet station also thing usually tower best looking app upper location using helps train windows simple determine birth without lot</t>
-  </si>
-  <si>
-    <t>yet approaching cell accurate current seat amazingly find internet station also thing usually tower best looking  upper location using helps  windows simple determine birth without lot</t>
-  </si>
-  <si>
-    <t>Showkathali TH</t>
-  </si>
-  <si>
-    <t>February 6, 2019</t>
-  </si>
-  <si>
-    <t>open 23 updates engine seat status leads favourite space dont within enter website railways irritating installing give app little page directly back bit pnr always indian availability days another called device wasting searching search results</t>
-  </si>
-  <si>
-    <t>open 23 updates engine seat status leads favourite space dont within enter website railways irritating installing give  little page directly back bit pnr always indian availability days another called device wasting searching search results</t>
-  </si>
-  <si>
-    <t>avnish gupta</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>charging service lunch saying dont 70 bogi time station dinner sheet 12 railway late wasted idea rs fool 3 officer train hours money total provided asked 2500 tiket curried b10</t>
-  </si>
-  <si>
-    <t>charging service lunch saying dont 70 bogi time station dinner sheet 12 railway late wasted idea rs fool 3 officer  hours money total provided asked 2500 tiket curried b10</t>
+    <t>works pop fingerprint complete properly update thr buggy need app also biometric verification going still completed login</t>
+  </si>
+  <si>
+    <t>works pop fingerprint complete properly update thr buggy need  also biometric verification going still completed login</t>
+  </si>
+  <si>
+    <t>Akbar Barbhuiya</t>
+  </si>
+  <si>
+    <t>13 March 2019</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>irritated bank thousand withdrewn low 10000 month also balance maximum 10 appropriate iti withdrawal user joke cant anither plz jokes per k enough 10k dbs system day deposit rectify</t>
+  </si>
+  <si>
+    <t>irritated  thousand withdrewn low 10000 month also balance maximum 10 appropriate iti withdrawal user joke cant anither plz jokes per k enough 10k  system day deposit rectify</t>
+  </si>
+  <si>
+    <t>Prantik Sarkar</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>best better masses need developers make tech integration basis interface microfinance providing bankinggood experienceespecially user one standardthe users awareness platform keep improving guide security savvy going</t>
+  </si>
+  <si>
+    <t>Pranjal Gupta</t>
+  </si>
+  <si>
+    <t>perfectlyits 10 interface times sluggish working ok transitionsupi 7 laggy</t>
+  </si>
+  <si>
+    <t>Jaspreet Singh</t>
+  </si>
+  <si>
+    <t>12 March 2019</t>
+  </si>
+  <si>
+    <t>drop bother chat pathetic worst even app dont revert message customer support</t>
+  </si>
+  <si>
+    <t>drop bother chat pathetic worst even  dont revert message customer support</t>
+  </si>
+  <si>
+    <t>tingku sapam</t>
+  </si>
+  <si>
+    <t>rated workingplease problem stopped low app take sson kindly action possibledeveloper fix</t>
+  </si>
+  <si>
+    <t>rated workingplease problem stopped low  take sson kindly action possibledeveloper fix</t>
+  </si>
+  <si>
+    <t>7 March 2019</t>
+  </si>
+  <si>
+    <t>window plz opens pop tells theres n problem register every create try account time later cant help</t>
+  </si>
+  <si>
+    <t>design thing make changing jo fill vahi dikta app premium happy reliable years card give using nice coustomer last debit bikta 3</t>
+  </si>
+  <si>
+    <t>design thing make changing jo fill vahi dikta  premium happy reliable years card give using nice coustomer last debit bikta 3</t>
+  </si>
+  <si>
+    <t>Sourajeet Roy</t>
+  </si>
+  <si>
+    <t>8 March 2019</t>
+  </si>
+  <si>
+    <t>necessary much slow like every fast app irritating ratings make disgusting ir ask smooth apps login</t>
+  </si>
+  <si>
+    <t>necessary much slow like every fast  irritating ratings make disgusting ir ask smooth apps login</t>
+  </si>
+  <si>
+    <t>Dinesh Kumar</t>
+  </si>
+  <si>
+    <t>could enter card pin set unable activate tried debit received proceed button diabled help please</t>
+  </si>
+  <si>
+    <t>Subham Kumar</t>
+  </si>
+  <si>
+    <t>start initial charges rs bank upto every 5 charging withdrawal without stage onwards expected withdraw unlimited happy 24 phenomenon</t>
+  </si>
+  <si>
+    <t>start initial charges rs  upto every 5 charging withdrawal without stage onwards expected withdraw unlimited happy 24 phenomenon</t>
+  </si>
+  <si>
+    <t>ACHAR NAHUSH</t>
+  </si>
+  <si>
+    <t>somebody restart worst unable august getting cache response wait provide relogin services app another elses still im login solution call etc use doesnt banking customer 2018 clear work care asked asking dbs calls random phone please</t>
+  </si>
+  <si>
+    <t>somebody restart worst unable august getting cache response wait provide relogin services  another elses still im login solution call etc use doesnt  customer 2018 clear work care asked asking  calls random phone please</t>
+  </si>
+  <si>
+    <t>Vinod sadu</t>
+  </si>
+  <si>
+    <t>one care bank users proper u dont dbs know response cant customer neft send imps biggest restricting</t>
+  </si>
+  <si>
+    <t>one care  users proper u dont  know response cant customer neft send imps biggest restricting</t>
+  </si>
+  <si>
+    <t>abhilash pk</t>
+  </si>
+  <si>
+    <t>patience slow lot use need app come also cant log</t>
+  </si>
+  <si>
+    <t>patience slow lot use need  come also cant log</t>
+  </si>
+  <si>
+    <t>5 March 2019</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>best online processes application thing app little banking whole bit slower considered good thank goo</t>
+  </si>
+  <si>
+    <t>best online processes application thing  little  whole bit slower considered good thank goo</t>
+  </si>
+  <si>
+    <t>Venkateshan Mohan</t>
+  </si>
+  <si>
+    <t>permission work reason reasons rival enough call storage sms need getting without permissions banking security think phone os apps</t>
+  </si>
+  <si>
+    <t>permission work reason reasons rival enough call storage sms need getting without permissions  security think phone os apps</t>
+  </si>
+  <si>
+    <t>Madhu Gana</t>
+  </si>
+  <si>
+    <t>showing installed incorrect fix let 4 check reset problem months details app lost bought past digibank login password know responding mobile using properly new going please</t>
+  </si>
+  <si>
+    <t>showing installed incorrect fix let 4 check reset problem months details  lost bought past  login password know responding mobile using properly new going please</t>
+  </si>
+  <si>
+    <t>mahesh raut</t>
+  </si>
+  <si>
+    <t>trasted person month accounti acno wrong reason balance open account show digibank six password froud dont 43141 time ago every dedit please</t>
+  </si>
+  <si>
+    <t>trasted person month accounti acno wrong reason balance open account show  six password froud dont 43141 time ago every dedit please</t>
+  </si>
+  <si>
+    <t>waiting thanks bank crowd control thing dbs home everything</t>
+  </si>
+  <si>
+    <t>waiting thanks  crowd control thing  home everything</t>
+  </si>
+  <si>
+    <t>kamal kishor Joshi</t>
+  </si>
+  <si>
+    <t>contact way shows open app technical case able error digibank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact way shows open  technical case able error </t>
+  </si>
+  <si>
+    <t>date kyc complete mail bank city way aurangabad sugget dbs day within branch kindly right receive 90 got reply near</t>
+  </si>
+  <si>
+    <t>date kyc complete mail  city way aurangabad sugget  day within branch kindly right receive 90 got reply near</t>
+  </si>
+  <si>
+    <t>Vaithees Waran</t>
+  </si>
+  <si>
+    <t>option solve pin month also soon got issue kind times sort zeroi im pinafter save update monthly keypad chennaiplease card lot use possible result n work enter last activate try came debit trying</t>
+  </si>
+  <si>
+    <t>annoying facing problems account opened</t>
+  </si>
+  <si>
+    <t>suresh dongale</t>
+  </si>
+  <si>
+    <t>mobile thanks bank use application experience last dbs banking two well years</t>
+  </si>
+  <si>
+    <t>mobile thanks  use application experience last   two well years</t>
+  </si>
+  <si>
+    <t>Manish Kumar</t>
+  </si>
+  <si>
+    <t>bt disburse taking unale time personal server trying actionalays</t>
+  </si>
+  <si>
+    <t>slow never card worst app activate life seen received debit till able</t>
+  </si>
+  <si>
+    <t>slow never card worst  activate life seen received debit till able</t>
+  </si>
+  <si>
+    <t>Pramoda K S</t>
+  </si>
+  <si>
+    <t>money using recommend helps nice instant fixed application experience dbs 2 deposit within one transfer im since many years digibank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">money using recommend helps nice instant fixed application experience  2 deposit within one transfer im since many years </t>
+  </si>
+  <si>
+    <t>Rudransh Kumar</t>
+  </si>
+  <si>
+    <t>money whenever saying went always working something want transfer wrong</t>
+  </si>
+  <si>
+    <t>Black Hammer</t>
+  </si>
+  <si>
+    <t>resolved small town hope bank application still office app lagging also bit increase soon good service please</t>
+  </si>
+  <si>
+    <t>resolved small town hope  application still office  lagging also bit increase soon good service please</t>
+  </si>
+  <si>
+    <t>Himanshu Phulara</t>
+  </si>
+  <si>
+    <t>digibank credit card unable app make ro bill payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> credit card unable  make ro bill payment</t>
+  </si>
+  <si>
+    <t>Bijoy Rauth</t>
+  </si>
+  <si>
+    <t>applied days id tracking 2 received didnt first</t>
+  </si>
+  <si>
+    <t>penikalapati praveen</t>
+  </si>
+  <si>
+    <t>loans provide worst app quay throughout mention india</t>
+  </si>
+  <si>
+    <t>loans provide worst  quay throughout mention india</t>
+  </si>
+  <si>
+    <t>Pradyumna Kumar Sahoo</t>
+  </si>
+  <si>
+    <t>solution solves bank loved tips problems hassle seconds banking free digibot within finger</t>
+  </si>
+  <si>
+    <t>solution solves  loved tips problems hassle seconds  free digibot within finger</t>
+  </si>
+  <si>
+    <t>Suraj Avatade</t>
+  </si>
+  <si>
+    <t>money useless add option upi 3month bad card experience last debit want</t>
+  </si>
+  <si>
+    <t>Monika Arora</t>
+  </si>
+  <si>
+    <t>facing issue slow times app tech</t>
+  </si>
+  <si>
+    <t>facing issue slow times  tech</t>
+  </si>
+  <si>
+    <t>cash sachin adding amazing convenient withdrawals ambassador brand app tendulkar banking also transfer fund well 0 mr</t>
+  </si>
+  <si>
+    <t>cash sachin adding amazing convenient withdrawals ambassador brand  tendulkar  also transfer fund well 0 mr</t>
+  </si>
+  <si>
+    <t>Ajay Dubey</t>
+  </si>
+  <si>
+    <t>upi resolve issue dormant getting inactive account service</t>
+  </si>
+  <si>
+    <t>Sumit Jha</t>
+  </si>
+  <si>
+    <t>facing appany slow problems problem app time types regarding please solve process</t>
+  </si>
+  <si>
+    <t>facing appany slow problems problem  time types regarding please solve process</t>
+  </si>
+  <si>
+    <t>get digi bank card debit able</t>
+  </si>
+  <si>
+    <t>get digi  card debit able</t>
+  </si>
+  <si>
+    <t>Prem Dangat</t>
+  </si>
+  <si>
+    <t>customerthey u worst take service first offer digi download nd app r call sending eligible bankdont dont poor care making year appthey customer fool confirm</t>
+  </si>
+  <si>
+    <t>customerthey u worst take service first offer digi download nd  r call sending eligible bankdont dont poor care making year appthey customer fool confirm</t>
+  </si>
+  <si>
+    <t>Mahish Singh</t>
+  </si>
+  <si>
+    <t>registered person number working get called app lost someone applied anyone update neither call days says 2 verification arrival mobile aadar week customer</t>
+  </si>
+  <si>
+    <t>registered person number working get called  lost someone applied anyone update neither call days says 2 verification arrival mobile aadar week customer</t>
+  </si>
+  <si>
+    <t>Pahen Phom</t>
+  </si>
+  <si>
+    <t>get expecting daily wanna card extend temporarily complaints limit debit till good im</t>
+  </si>
+  <si>
+    <t>RAHUL RANJAN</t>
+  </si>
+  <si>
+    <t>get problem doesnt always otp probably servers</t>
+  </si>
+  <si>
+    <t>B C</t>
+  </si>
+  <si>
+    <t>sing waste match password id app wasted totally poor working tried time username correct</t>
+  </si>
+  <si>
+    <t>sing waste match password id  wasted totally poor working tried time username correct</t>
+  </si>
+  <si>
+    <t>options deposits completely upi charges much faq bank fixed better withdrawals cons program also pros good offers apps great atms would scorecard app account digibot checked digibucks bill savings etc card finally aside dont robust pay banking integrate therein accounts help digital atm include dbs payments debit many</t>
+  </si>
+  <si>
+    <t>options deposits completely upi charges much faq  fixed better withdrawals cons program also pros good offers apps great atms would scorecard  account digibot checked digibucks bill savings etc card finally aside dont robust pay  integrate therein accounts help digital atm include  payments debit many</t>
+  </si>
+  <si>
+    <t>Prashant Kumar</t>
+  </si>
+  <si>
+    <t>useless hang maximum application app time crease going service</t>
+  </si>
+  <si>
+    <t>useless hang maximum application  time crease going service</t>
+  </si>
+  <si>
+    <t>Ali Ajmeri</t>
+  </si>
+  <si>
+    <t>slow problems app kindly still speed</t>
+  </si>
+  <si>
+    <t>slow problems  kindly still speed</t>
+  </si>
+  <si>
+    <t>sajid rabi</t>
+  </si>
+  <si>
+    <t>improvement plz se apps hota atm koi nai kai camplain kiya bhi withdrawal horah transfer recharge help fashi payment na</t>
+  </si>
+  <si>
+    <t>Soumik Naskar</t>
+  </si>
+  <si>
+    <t>dbs good uperb app</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> good uperb </t>
+  </si>
+  <si>
+    <t>Sita Rama Reddy Burramukku</t>
+  </si>
+  <si>
+    <t>ifs money code add wallet resolve unable even number ac correct though first given</t>
+  </si>
+  <si>
+    <t>Anand Singh</t>
+  </si>
+  <si>
+    <t>exit using back app button able</t>
+  </si>
+  <si>
+    <t>exit using back  button able</t>
+  </si>
+  <si>
+    <t>NEERA MANKAD</t>
+  </si>
+  <si>
+    <t>best wallet proud bank use funds worlds app account providing safest ane one user friendly intrest</t>
+  </si>
+  <si>
+    <t>best wallet proud  use funds worlds  account providing safest ane one user friendly intrest</t>
+  </si>
+  <si>
+    <t>Manoj Pandey</t>
+  </si>
+  <si>
+    <t>best one bank use app account banking salary come benefits acrosscan</t>
+  </si>
+  <si>
+    <t>best one  use  account  salary come benefits acrosscan</t>
+  </si>
+  <si>
+    <t>Mohammed Iftekhar Aalam</t>
+  </si>
+  <si>
+    <t>password reset forgotten unable</t>
+  </si>
+  <si>
+    <t>ramesh babu</t>
+  </si>
+  <si>
+    <t>best excellent team use times dbs app easy system banking service lagging</t>
+  </si>
+  <si>
+    <t>best excellent team use times   easy system  service lagging</t>
+  </si>
+  <si>
+    <t>Gourab Das</t>
+  </si>
+  <si>
+    <t>charges maintenance fingertips atm amt use cool without easy become min well</t>
+  </si>
+  <si>
+    <t>A M</t>
+  </si>
+  <si>
+    <t>stop slow banking bit one</t>
+  </si>
+  <si>
+    <t>stop slow  bit one</t>
+  </si>
+  <si>
+    <t>Ujjwal Sancheti</t>
+  </si>
+  <si>
+    <t>provide card provided days number tracking working received 2 next guaranteed 3</t>
+  </si>
+  <si>
+    <t>blue worst dart customer service</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>best digital bank experience app usage account opening truly anything awesome seamless</t>
+  </si>
+  <si>
+    <t>best digital  experience  usage account opening truly anything awesome seamless</t>
+  </si>
+  <si>
+    <t>B N Mahanta</t>
+  </si>
+  <si>
+    <t>saving odishait bad use open experience app easy account able good</t>
+  </si>
+  <si>
+    <t>saving odishait bad use open experience  easy account able good</t>
+  </si>
+  <si>
+    <t>Samir Nayakawadi</t>
+  </si>
+  <si>
+    <t>option virtual card would like rest app debit things awesome</t>
+  </si>
+  <si>
+    <t>option virtual card would like rest  debit things awesome</t>
+  </si>
+  <si>
+    <t>Yuvaraj Desav</t>
+  </si>
+  <si>
+    <t>best work branches excited job bank use lot must app dbs interested</t>
+  </si>
+  <si>
+    <t>best work branches excited job  use lot must   interested</t>
+  </si>
+  <si>
+    <t>HITESH VEER</t>
+  </si>
+  <si>
+    <t>care mumbai number fast branch customer please reply found</t>
+  </si>
+  <si>
+    <t>atm withdrawal happy limitation</t>
+  </si>
+  <si>
+    <t>Partha Hudati</t>
+  </si>
+  <si>
+    <t>start improvement star lot still need giving done one thats 3</t>
+  </si>
+  <si>
+    <t>shivam singh</t>
+  </si>
+  <si>
+    <t>login back version previous even app account cant restore please</t>
+  </si>
+  <si>
+    <t>login back version previous even  account cant restore please</t>
+  </si>
+  <si>
+    <t>Shivkumar Ladde</t>
+  </si>
+  <si>
+    <t>person easy normal good operate</t>
+  </si>
+  <si>
+    <t>Shubham Bakal</t>
+  </si>
+  <si>
+    <t>made perfect much live bank less sense respect dbs easy banking makes love lots india digibank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">made perfect much live  less sense respect  easy  makes love lots india </t>
+  </si>
+  <si>
+    <t>Bharat Gunjawate</t>
+  </si>
+  <si>
+    <t>money suggestion add option nice card use every app make available debit one</t>
+  </si>
+  <si>
+    <t>money suggestion add option nice card use every  make available debit one</t>
+  </si>
+  <si>
+    <t>Harshit Gupta</t>
+  </si>
+  <si>
+    <t>much good times even 23 appsits slow compared internet banking connectionthe verification smooth process works timeits buffering shows takes buffer always lags fails</t>
+  </si>
+  <si>
+    <t>much good times even 23 appsits slow compared internet  connectionthe verification smooth process works timeits buffering shows takes buffer always lags fails</t>
   </si>
 </sst>
 </file>
@@ -1430,19 +1127,19 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1450,25 +1147,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1476,25 +1173,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1502,25 +1199,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1528,25 +1225,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1554,25 +1251,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1580,25 +1277,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1606,25 +1303,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1632,25 +1329,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1658,25 +1355,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1684,25 +1381,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1710,25 +1407,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1736,25 +1433,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1762,25 +1459,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1788,25 +1485,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1814,25 +1511,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1840,25 +1537,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1866,25 +1563,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1892,25 +1589,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1918,10 +1615,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1930,13 +1627,13 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1944,25 +1641,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1970,25 +1667,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1996,25 +1693,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2022,25 +1719,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="H27" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2048,25 +1745,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="H28" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2074,25 +1771,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="H29" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2100,25 +1797,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="H30" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2126,25 +1823,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="H31" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2152,25 +1849,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="H32" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2178,25 +1875,25 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="H33" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2204,25 +1901,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="H34" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2230,25 +1927,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="H35" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2256,25 +1953,25 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="H36" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2282,25 +1979,25 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="H37" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2308,25 +2005,25 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="H38" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2334,25 +2031,25 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
         <v>43</v>
       </c>
-      <c r="E39" t="s">
-        <v>44</v>
-      </c>
       <c r="F39" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="H39" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2360,25 +2057,25 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="H40" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2386,25 +2083,25 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" t="s">
         <v>43</v>
       </c>
-      <c r="E41" t="s">
-        <v>44</v>
-      </c>
       <c r="F41" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="H41" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2412,25 +2109,25 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="H42" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2438,25 +2135,25 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="H43" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2464,25 +2161,25 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="H44" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2490,25 +2187,25 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F45" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="H45" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2516,25 +2213,25 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F46" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="H46" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2542,25 +2239,25 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="H47" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2568,25 +2265,25 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="H48" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2594,25 +2291,25 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>218</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="H49" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2620,25 +2317,25 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="H50" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2646,25 +2343,25 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>225</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="H51" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2672,25 +2369,25 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="H52" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2698,25 +2395,25 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="H53" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2724,25 +2421,25 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>237</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="H54" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2750,25 +2447,25 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>241</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="H55" t="s">
-        <v>243</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2776,25 +2473,25 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="C56" t="s">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="H56" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2802,25 +2499,25 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>251</v>
+        <v>174</v>
       </c>
       <c r="H57" t="s">
-        <v>252</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2828,25 +2525,25 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>254</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="H58" t="s">
-        <v>256</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2854,25 +2551,25 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F59" t="s">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s">
-        <v>259</v>
+        <v>179</v>
       </c>
       <c r="H59" t="s">
-        <v>260</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2880,25 +2577,25 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>263</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s">
-        <v>264</v>
+        <v>182</v>
       </c>
       <c r="H60" t="s">
-        <v>264</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2906,25 +2603,25 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="H61" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2932,25 +2629,25 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>268</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>269</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="H62" t="s">
-        <v>271</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2958,25 +2655,25 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E63" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F63" t="s">
-        <v>273</v>
+        <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>274</v>
+        <v>190</v>
       </c>
       <c r="H63" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2984,25 +2681,25 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>276</v>
+        <v>192</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c r="H64" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3010,25 +2707,25 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F65" t="s">
-        <v>281</v>
+        <v>55</v>
       </c>
       <c r="G65" t="s">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="H65" t="s">
-        <v>283</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3036,25 +2733,25 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="C66" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" t="s">
         <v>43</v>
       </c>
-      <c r="E66" t="s">
-        <v>44</v>
-      </c>
       <c r="F66" t="s">
         <v>55</v>
       </c>
       <c r="G66" t="s">
-        <v>285</v>
+        <v>198</v>
       </c>
       <c r="H66" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3062,25 +2759,25 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>288</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="H67" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3088,25 +2785,25 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="G68" t="s">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c r="H68" t="s">
-        <v>293</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3114,25 +2811,25 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="G69" t="s">
-        <v>294</v>
+        <v>204</v>
       </c>
       <c r="H69" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3140,25 +2837,25 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>296</v>
+        <v>50</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="G70" t="s">
-        <v>297</v>
+        <v>206</v>
       </c>
       <c r="H70" t="s">
-        <v>298</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3166,25 +2863,25 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="C71" t="s">
-        <v>299</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="G71" t="s">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="H71" t="s">
-        <v>302</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3192,25 +2889,25 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F72" t="s">
-        <v>304</v>
+        <v>55</v>
       </c>
       <c r="G72" t="s">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="H72" t="s">
-        <v>306</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3218,25 +2915,25 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>307</v>
+        <v>214</v>
       </c>
       <c r="C73" t="s">
-        <v>308</v>
+        <v>54</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G73" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="H73" t="s">
-        <v>310</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3244,25 +2941,25 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>311</v>
+        <v>217</v>
       </c>
       <c r="C74" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="D74" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F74" t="s">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="G74" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="H74" t="s">
-        <v>313</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3270,25 +2967,25 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>314</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E75" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G75" t="s">
-        <v>316</v>
+        <v>219</v>
       </c>
       <c r="H75" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3296,25 +2993,25 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="C76" t="s">
         <v>64</v>
       </c>
       <c r="D76" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>318</v>
+        <v>55</v>
       </c>
       <c r="G76" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="H76" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3322,25 +3019,25 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F77" t="s">
-        <v>322</v>
+        <v>55</v>
       </c>
       <c r="G77" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="H77" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3348,25 +3045,25 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D78" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>258</v>
+        <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>324</v>
+        <v>226</v>
       </c>
       <c r="H78" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3374,25 +3071,25 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
       <c r="C79" t="s">
-        <v>299</v>
+        <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E79" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F79" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="G79" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
       <c r="H79" t="s">
-        <v>328</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3400,25 +3097,25 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>329</v>
+        <v>230</v>
       </c>
       <c r="C80" t="s">
-        <v>330</v>
+        <v>36</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G80" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="H80" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3426,25 +3123,25 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="C81" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="D81" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>334</v>
+        <v>55</v>
       </c>
       <c r="G81" t="s">
-        <v>335</v>
+        <v>234</v>
       </c>
       <c r="H81" t="s">
-        <v>336</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/app_reviews/outputs/result.xlsx
+++ b/app_reviews/outputs/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>reviewer_name</t>
   </si>
@@ -38,10 +38,28 @@
     <t>new</t>
   </si>
   <si>
-    <t>Sagar Raj</t>
-  </si>
-  <si>
-    <t>11 March 2019</t>
+    <t>Nicosius Geraldi</t>
+  </si>
+  <si>
+    <t>March 13, 2019</t>
+  </si>
+  <si>
+    <t>Rated 1 stars out of five stars</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>semua secara tokopedia z button toko yg gini renggut dipilih hanya ini tidak customer untuk dengan hak sebagai tapi durasi di sudah sesuai mau update sampai pengiriman versi ada kaya semenjak apps apa terbaru tulisan kurir otomatis dan layanan saya memilih maksudnya bisa inginkan preferensi pilih</t>
+  </si>
+  <si>
+    <t>semua secara tokopedia z button toko yg gini renggut dipilih hanya ini tidak customer untuk dengan hak sebagai tapi durasi di sudah sesuai mau update sampai pengiriman versi ada kaya semenjak  apa terbaru tulisan kurir otomatis dan layanan saya memilih maksudnya bisa inginkan preferensi pilih</t>
+  </si>
+  <si>
+    <t>patrick wong</t>
   </si>
   <si>
     <t>Rated 2 stars out of five stars</t>
@@ -50,679 +68,568 @@
     <t>2</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>hazard best tests pressure way bot wallets also finding bypass payment great high heart claims luck risk although seemingly susceptible digibank chat virtual extent blood real health incentives patience using attacks</t>
-  </si>
-  <si>
-    <t>hazard best tests pressure way bot wallets also finding bypass payment great high heart claims luck risk although seemingly susceptible  chat virtual extent blood real health incentives patience using attacks</t>
-  </si>
-  <si>
-    <t>VINAYAK KADAM</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>dan menu faq bantuan tidak berfungsi</t>
+  </si>
+  <si>
+    <t>Mares Pradana</t>
+  </si>
+  <si>
+    <t>Rated 5 stars out of five stars</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>aplikasi dapat dan loading terima pemakaian setelah berjalan saya lancar langsung komplain awal tanggapan kasih lambat sangat</t>
+  </si>
+  <si>
+    <t>Hadi Wibowo</t>
+  </si>
+  <si>
+    <t>March 12, 2019</t>
+  </si>
+  <si>
+    <t>masuk banyak dng abal tawarkan gak sayang yg mulai murahnya harga belanja akalmencurigakan mudah penjual barang</t>
+  </si>
+  <si>
+    <t>A Google user</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ga ligat riwayat update transaksi bisa habis di</t>
+  </si>
+  <si>
+    <t>Zeth ImmanueL Tendean Jr</t>
+  </si>
+  <si>
+    <t>aplikasi ga nya ada mati</t>
+  </si>
+  <si>
+    <t>pietro Hardi</t>
+  </si>
+  <si>
+    <t>bagus marketpalce ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bagus marketpalce </t>
+  </si>
+  <si>
+    <t>Edgina Rahma</t>
+  </si>
+  <si>
+    <t>keep working dude apps great good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keep working dude  great </t>
+  </si>
+  <si>
+    <t>Muhammad Harun</t>
+  </si>
+  <si>
+    <t>membantu dan app excellent sangat</t>
+  </si>
+  <si>
+    <t>membantu dan  excellent sangat</t>
+  </si>
+  <si>
+    <t>Lex Bong</t>
+  </si>
+  <si>
+    <t>March 11, 2019</t>
+  </si>
+  <si>
+    <t>keren toped</t>
+  </si>
+  <si>
+    <t>Terry Aja</t>
+  </si>
+  <si>
+    <t>aplikasi mantab</t>
+  </si>
+  <si>
+    <t>Ira Yuska</t>
+  </si>
+  <si>
+    <t>application good</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Alfian Nur Sya'bana</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>Fauzy Nadjar</t>
+  </si>
+  <si>
+    <t>good app</t>
+  </si>
+  <si>
+    <t>Muhammad Muslimin Ikbal</t>
+  </si>
+  <si>
+    <t>terpercaya good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terpercaya </t>
+  </si>
+  <si>
+    <t>nico wijaya</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>Irwan Chai</t>
+  </si>
+  <si>
+    <t>March 6, 2019</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>saatnya parah ke malah history tau tambah caranya timeout terus aplikasi ga mau update gw lain trus ulasan makin hijrah baik aja saya pembelian cara nulis bukannya liat</t>
+  </si>
+  <si>
+    <t>Paul Asido</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>pesan diskusi ketika mau parah update saya banned malah sbg user kurang zzzz isi muncul terakhir lebih produk error</t>
+  </si>
+  <si>
+    <t>Hendry Utama</t>
+  </si>
+  <si>
+    <t>March 4, 2019</t>
   </si>
   <si>
     <t>Rated 3 stars out of five stars</t>
   </si>
   <si>
-    <t>3</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>ditawarkan ongkir hilang yg diganti kurang sejak ini tidak memang des dibanding lainnya lbh perbulan utk menarik kupon pakai program lagi 8 undian2 karena bagus official free jelas didukung dan banyak store nilainya promo 2019 ovo kecil cashback maret 2018 awal jadi</t>
+  </si>
+  <si>
+    <t>March 7, 2019</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>shown smoothly hectic reacharge make want recharge otherwise amount concept times app list oh says error improve plan using valid nice enter things many trying</t>
-  </si>
-  <si>
-    <t>shown smoothly hectic reacharge make want recharge otherwise amount concept times  list oh says error improve plan using valid nice enter things many trying</t>
-  </si>
-  <si>
-    <t>Arun Saxena</t>
-  </si>
-  <si>
-    <t>4 March 2019</t>
-  </si>
-  <si>
-    <t>Rated 5 stars out of five stars</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>fingerfrint thanks unable working wrong 4 reset times details app account needs login password upgrade complete shows dbs always scanning fine mu</t>
-  </si>
-  <si>
-    <t>fingerfrint thanks unable working wrong 4 reset times details  account needs login password upgrade complete shows  always scanning fine mu</t>
-  </si>
-  <si>
-    <t>ashish athalye</t>
-  </si>
-  <si>
-    <t>10 March 2019</t>
-  </si>
-  <si>
-    <t>self fees also kindly withdrawls mumbai app limit trouble update location mentioned navimumbai withdrawl lot done free mention placed atm logging charging dbs heavy stipulated gives transaction</t>
-  </si>
-  <si>
-    <t>self fees also kindly withdrawls mumbai  limit trouble update location mentioned navimumbai withdrawl lot done free mention placed atm logging charging  heavy stipulated gives transaction</t>
-  </si>
-  <si>
-    <t>Benson Gomez</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>clear memory completely close background slow compared app everytime recent banking button exist apps</t>
-  </si>
-  <si>
-    <t>clear memory completely close background slow compared  everytime recent  button exist apps</t>
-  </si>
-  <si>
-    <t>Teeds Chauhan</t>
-  </si>
-  <si>
-    <t>6 March 2019</t>
+    <t>ga tokopedia juga snk worst cs ever sangat langgar malah cashback real tapi pelayanan payah marketplace dibatalkan di order</t>
+  </si>
+  <si>
+    <t>Chris Fransiska</t>
+  </si>
+  <si>
+    <t>March 5, 2019</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>ya dicurangin tertera ui bs kecurangan check hilang checkout banget klo toped coba kalau meskipun input bayar tapi aneh sebelum belum di jd blm ga kupon halaman donk lagi poor mau rugi update tp gw atau masuk cek sy cashback bisa korban invoice udah sehingga akrg</t>
+  </si>
+  <si>
+    <t>Dedi Andika</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>kenapa dan seharusnya informasi buka tiket lainlain tolong diperbaiki saya dalam pesawat bugnya yg bisa tak notifikasi muncul ditampilkan</t>
+  </si>
+  <si>
+    <t>Ashar Sulaksono</t>
+  </si>
+  <si>
+    <t>March 10, 2019</t>
+  </si>
+  <si>
+    <t>kupon pakai susah menu ovo gak history point dicari bisa dipake belanja</t>
+  </si>
+  <si>
+    <t>Ferdy Karler</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>registered upi unavailable number later want 10 times app registering server show money register time end many asking charging try already charge 150rs</t>
-  </si>
-  <si>
-    <t>registered upi unavailable number later want 10 times  registering server show money register time end many asking charging try already charge 150rs</t>
-  </si>
-  <si>
-    <t>Mrityunjaya Paniquar</t>
-  </si>
-  <si>
-    <t>9 March 2019</t>
+    <t>ga blunder selesaiin pdhl transaksi sampe bisa paket udah jadi</t>
+  </si>
+  <si>
+    <t>MD Raditya</t>
+  </si>
+  <si>
+    <t>bingung menu kadang bikin update keluar kadah malah history kagak belanja dimana</t>
+  </si>
+  <si>
+    <t>Rivandanu Fadhli</t>
   </si>
   <si>
     <t>Rated 4 stars out of five stars</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>later difficulty great however whims updates app one ever initially digibank swidt card wnjoying promotions well featurea beilliant oblige dbs year many faored</t>
-  </si>
-  <si>
-    <t>later difficulty great however whims updates  one ever initially  swidt card wnjoying promotions well featurea beilliant oblige  year many faored</t>
-  </si>
-  <si>
-    <t>Neel Sarkar</t>
-  </si>
-  <si>
-    <t>Rated 1 stars out of five stars</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>spend get denied 1000 offer diwali claimed spender iphone said give 20000 top</t>
-  </si>
-  <si>
-    <t>A Google user</t>
-  </si>
-  <si>
-    <t>works pop fingerprint complete properly update thr buggy need app also biometric verification going still completed login</t>
-  </si>
-  <si>
-    <t>works pop fingerprint complete properly update thr buggy need  also biometric verification going still completed login</t>
-  </si>
-  <si>
-    <t>Akbar Barbhuiya</t>
-  </si>
-  <si>
-    <t>13 March 2019</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>irritated bank thousand withdrewn low 10000 month also balance maximum 10 appropriate iti withdrawal user joke cant anither plz jokes per k enough 10k dbs system day deposit rectify</t>
-  </si>
-  <si>
-    <t>irritated  thousand withdrewn low 10000 month also balance maximum 10 appropriate iti withdrawal user joke cant anither plz jokes per k enough 10k  system day deposit rectify</t>
-  </si>
-  <si>
-    <t>Prantik Sarkar</t>
+    <t>itu tidak menjadi penanganan setelah 13 handphone berubah nomor jumlah saat bila sudah kolom ubah ditulis review 08xxx ada pula thanks digit nya otomatis dan diedit akan karna 628xxx saya transaksi bisa awal jadi disave</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>dapat penipuan ternyata buka toko promoke hpbiar orang buat pedia setiap aplikasinya memancing</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>tokopedia banyak diskon dan ongkir parah saja dengan kecewa gratis malah tambah bener bukannya maret ini awal</t>
+  </si>
+  <si>
+    <t>darmadi chandra</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>bengek diskusi dan belasan kolom lihatnya padahal click follow trs blink itu kali di sdh</t>
+  </si>
+  <si>
+    <t>Degi Rizcky</t>
+  </si>
+  <si>
+    <t>doang komplaint mau server tp statusnya bermasalah yg ada jawab robot terus barang chat fitu</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>last copy updatega bisa invoice</t>
+  </si>
+  <si>
+    <t>edy santosa</t>
+  </si>
+  <si>
+    <t>banyak ngak bikin punya saja jgn gan kecewa ada sortir penjual barang di dipajang</t>
+  </si>
+  <si>
+    <t>aplikasi dan sesuai diterima untuk gunakan dengan yang jual mudah barang di</t>
+  </si>
+  <si>
+    <t>studio production</t>
+  </si>
+  <si>
+    <t>lah ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lah </t>
+  </si>
+  <si>
+    <t>trims tokped</t>
+  </si>
+  <si>
+    <t>Yos Riyadi</t>
+  </si>
+  <si>
+    <t>akan tokopedia professional terjang bangga lebih sepak</t>
+  </si>
+  <si>
+    <t>Petak rumah</t>
+  </si>
+  <si>
+    <t>aplikasi perbaiki tolong segera notifikasi muncul tidak di</t>
+  </si>
+  <si>
+    <t>Marliyanti Kristy</t>
+  </si>
+  <si>
+    <t>gbsa aplikasinya buka</t>
+  </si>
+  <si>
+    <t>Sylphers Hery</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>24rb korupsi kooperatif aja ongkir parah tidak di</t>
+  </si>
+  <si>
+    <t>Adi Supranoto</t>
+  </si>
+  <si>
+    <t>March 9, 2019</t>
+  </si>
+  <si>
+    <t>tokopedia love txx33 eerf r ef rrrer f</t>
+  </si>
+  <si>
+    <t>Eric Tjan</t>
+  </si>
+  <si>
+    <t>March 8, 2019</t>
+  </si>
+  <si>
+    <t>helpful good n</t>
+  </si>
+  <si>
+    <t>helpful  n</t>
+  </si>
+  <si>
+    <t>mantab</t>
+  </si>
+  <si>
+    <t>Agung Maehendra</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>nyaman dsni belanja</t>
+  </si>
+  <si>
+    <t>good job</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> job</t>
+  </si>
+  <si>
+    <t>Dharmawan Zakky</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>Herald Sinaga</t>
+  </si>
+  <si>
+    <t>agus sugiharto</t>
+  </si>
+  <si>
+    <t>apps good</t>
+  </si>
+  <si>
+    <t>Dicky Saputra</t>
+  </si>
+  <si>
+    <t>great apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">great </t>
+  </si>
+  <si>
+    <t>lauren hartawan</t>
+  </si>
+  <si>
+    <t>tumbs good app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumbs  </t>
+  </si>
+  <si>
+    <t>Luthfi Hasan</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>okelah</t>
+  </si>
+  <si>
+    <t>rahmat budi</t>
+  </si>
+  <si>
+    <t>Anthony Gunawan</t>
+  </si>
+  <si>
+    <t>Himawan Agung</t>
+  </si>
+  <si>
+    <t>mahadewa online</t>
+  </si>
+  <si>
+    <t>endang suryanendi</t>
+  </si>
+  <si>
+    <t>March 3, 2019</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>severely go least actually backandforth always even feed app soso rechecking ive tried still refreshing areas version say theres pages annoying new exists icon badge</t>
+  </si>
+  <si>
+    <t>severely go least actually backandforth always even feed  soso rechecking ive tried still refreshing areas version say theres pages annoying new exists icon badge</t>
+  </si>
+  <si>
+    <t>tokopedia bs pake terus klo error ongkirnya aplikasi connected gitu kesalahan tapi mtokopedia ga kupon server gratis aplikasinya kan kenapa via bisa maret melalui</t>
+  </si>
+  <si>
+    <t>Riza Edwin Kurniawan</t>
+  </si>
+  <si>
+    <t>March 2, 2019</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>malah error bingung app agak barang power jd ga update tiap ulasan rating ngasih via bisa house nulis buat stlh upload terakhir</t>
+  </si>
+  <si>
+    <t>malah error bingung  agak barang power jd ga update tiap ulasan rating ngasih via bisa house nulis buat stlh upload terakhir</t>
+  </si>
+  <si>
+    <t>CRB Suara Pembaruan - Memihak Kebenaran</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>semua tokopedia ongkir tadinya parah toko diganti februari ongkos pelit untuk 4 mfull kali 20 di power kirim 15 gratis yang ribu bulan 8 per gojek makin grab stok banyak 2019 khusus rp harga maret sama 5 cuman review badge semakin</t>
+  </si>
+  <si>
+    <t>do2 exe</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>notification mailbox 2019 previous bugs update quite lots spams gives februari another 29 stable ads addressed</t>
+  </si>
+  <si>
+    <t>Atmo suryo</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>lag sering dari yg bukan oenilaian repot dulunya sekarang 1 tidak produk muncul page setfull sale alasan untuk pasar quality issue jika tapi agak review 3 status buyer dg ada per terserap notifikasi membantu akan dan baik dapat 2019 flash 2 maret pengecekan seller sangat</t>
+  </si>
+  <si>
+    <t>Harris Dadlani</t>
+  </si>
+  <si>
+    <t>decreiving sure reliable money complains mske measurement quality standard back plus source buyer items gaurantee bought article good knows</t>
+  </si>
+  <si>
+    <t>decreiving sure reliable money complains mske measurement quality standard back plus source buyer items gaurantee bought article  knows</t>
+  </si>
+  <si>
+    <t>Fience Gerald</t>
+  </si>
+  <si>
+    <t>February 28, 2019</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>semua screen tokopedia dikira android kfull working emas muncul terus seamless black sebelum reksa dana transitionnya tokopoints buka update statusnya pengiriman gak status sampe hang stopped juga lambat sekitar ovo saya sama nearly review</t>
+  </si>
+  <si>
+    <t>terima muncul tidak error berhasil tanpa jika gambar kasih beserta mengirim server update 3221 versi terkirim beri terbaru ulasan keterangan akan diulas</t>
+  </si>
+  <si>
+    <t>Munawar Haris</t>
+  </si>
+  <si>
+    <t>aplikasi terusmohon tokopedia dan gangguan sebelumnya pada servernya seperti diperbaiki yang mah dulu skrang bagus deh lebih kayaknya error</t>
+  </si>
+  <si>
+    <t>Andi Hediawan</t>
+  </si>
+  <si>
+    <t>ruginyafull check mslhtolong pembelimau bannedknpapa gk lancartdk akun error bnyk aplikasi diskusi tanya laingk symsh tnyata di sperti kolom review talk insert ada apa brg artinya ituapakah jawabannyakl bsjwbannya masalah sytrakhir sy tdk user salah buat banned tokped order</t>
+  </si>
+  <si>
+    <t>Melisa Angelina</t>
+  </si>
+  <si>
+    <t>game sering ui yg crash molo terus bingung menu captain biasa sudah digunakan marvelnya bagus lokasi2 perubahan banyak cuma appsnya jadi</t>
+  </si>
+  <si>
+    <t>Johandy Huang</t>
+  </si>
+  <si>
+    <t>tokopedia telepon driver pake kurang dpt tidak chat customer aplikasi points kerjasama ujung2nfull jg dengan harus ketik better wasting mau kirim tp sayang gojek usah ada sangat2 efektif time lain brg bagus service nya dan susah spt marketplace2 reward melalui review sangat</t>
+  </si>
+  <si>
+    <t>Aileen A</t>
+  </si>
+  <si>
+    <t>cant forcing tokopedia previous spams kept back please go promoi stop sites truly irritating site pop press</t>
+  </si>
+  <si>
+    <t>李光輝suwarjono</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>best better masses need developers make tech integration basis interface microfinance providing bankinggood experienceespecially user one standardthe users awareness platform keep improving guide security savvy going</t>
-  </si>
-  <si>
-    <t>Pranjal Gupta</t>
-  </si>
-  <si>
-    <t>perfectlyits 10 interface times sluggish working ok transitionsupi 7 laggy</t>
-  </si>
-  <si>
-    <t>Jaspreet Singh</t>
-  </si>
-  <si>
-    <t>12 March 2019</t>
-  </si>
-  <si>
-    <t>drop bother chat pathetic worst even app dont revert message customer support</t>
-  </si>
-  <si>
-    <t>drop bother chat pathetic worst even  dont revert message customer support</t>
-  </si>
-  <si>
-    <t>tingku sapam</t>
-  </si>
-  <si>
-    <t>rated workingplease problem stopped low app take sson kindly action possibledeveloper fix</t>
-  </si>
-  <si>
-    <t>rated workingplease problem stopped low  take sson kindly action possibledeveloper fix</t>
-  </si>
-  <si>
-    <t>7 March 2019</t>
-  </si>
-  <si>
-    <t>window plz opens pop tells theres n problem register every create try account time later cant help</t>
-  </si>
-  <si>
-    <t>design thing make changing jo fill vahi dikta app premium happy reliable years card give using nice coustomer last debit bikta 3</t>
-  </si>
-  <si>
-    <t>design thing make changing jo fill vahi dikta  premium happy reliable years card give using nice coustomer last debit bikta 3</t>
-  </si>
-  <si>
-    <t>Sourajeet Roy</t>
-  </si>
-  <si>
-    <t>8 March 2019</t>
-  </si>
-  <si>
-    <t>necessary much slow like every fast app irritating ratings make disgusting ir ask smooth apps login</t>
-  </si>
-  <si>
-    <t>necessary much slow like every fast  irritating ratings make disgusting ir ask smooth apps login</t>
-  </si>
-  <si>
-    <t>Dinesh Kumar</t>
-  </si>
-  <si>
-    <t>could enter card pin set unable activate tried debit received proceed button diabled help please</t>
-  </si>
-  <si>
-    <t>Subham Kumar</t>
-  </si>
-  <si>
-    <t>start initial charges rs bank upto every 5 charging withdrawal without stage onwards expected withdraw unlimited happy 24 phenomenon</t>
-  </si>
-  <si>
-    <t>start initial charges rs  upto every 5 charging withdrawal without stage onwards expected withdraw unlimited happy 24 phenomenon</t>
-  </si>
-  <si>
-    <t>ACHAR NAHUSH</t>
-  </si>
-  <si>
-    <t>somebody restart worst unable august getting cache response wait provide relogin services app another elses still im login solution call etc use doesnt banking customer 2018 clear work care asked asking dbs calls random phone please</t>
-  </si>
-  <si>
-    <t>somebody restart worst unable august getting cache response wait provide relogin services  another elses still im login solution call etc use doesnt  customer 2018 clear work care asked asking  calls random phone please</t>
-  </si>
-  <si>
-    <t>Vinod sadu</t>
-  </si>
-  <si>
-    <t>one care bank users proper u dont dbs know response cant customer neft send imps biggest restricting</t>
-  </si>
-  <si>
-    <t>one care  users proper u dont  know response cant customer neft send imps biggest restricting</t>
-  </si>
-  <si>
-    <t>abhilash pk</t>
-  </si>
-  <si>
-    <t>patience slow lot use need app come also cant log</t>
-  </si>
-  <si>
-    <t>patience slow lot use need  come also cant log</t>
-  </si>
-  <si>
-    <t>5 March 2019</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>best online processes application thing app little banking whole bit slower considered good thank goo</t>
-  </si>
-  <si>
-    <t>best online processes application thing  little  whole bit slower considered good thank goo</t>
-  </si>
-  <si>
-    <t>Venkateshan Mohan</t>
-  </si>
-  <si>
-    <t>permission work reason reasons rival enough call storage sms need getting without permissions banking security think phone os apps</t>
-  </si>
-  <si>
-    <t>permission work reason reasons rival enough call storage sms need getting without permissions  security think phone os apps</t>
-  </si>
-  <si>
-    <t>Madhu Gana</t>
-  </si>
-  <si>
-    <t>showing installed incorrect fix let 4 check reset problem months details app lost bought past digibank login password know responding mobile using properly new going please</t>
-  </si>
-  <si>
-    <t>showing installed incorrect fix let 4 check reset problem months details  lost bought past  login password know responding mobile using properly new going please</t>
-  </si>
-  <si>
-    <t>mahesh raut</t>
-  </si>
-  <si>
-    <t>trasted person month accounti acno wrong reason balance open account show digibank six password froud dont 43141 time ago every dedit please</t>
-  </si>
-  <si>
-    <t>trasted person month accounti acno wrong reason balance open account show  six password froud dont 43141 time ago every dedit please</t>
-  </si>
-  <si>
-    <t>waiting thanks bank crowd control thing dbs home everything</t>
-  </si>
-  <si>
-    <t>waiting thanks  crowd control thing  home everything</t>
-  </si>
-  <si>
-    <t>kamal kishor Joshi</t>
-  </si>
-  <si>
-    <t>contact way shows open app technical case able error digibank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact way shows open  technical case able error </t>
-  </si>
-  <si>
-    <t>date kyc complete mail bank city way aurangabad sugget dbs day within branch kindly right receive 90 got reply near</t>
-  </si>
-  <si>
-    <t>date kyc complete mail  city way aurangabad sugget  day within branch kindly right receive 90 got reply near</t>
-  </si>
-  <si>
-    <t>Vaithees Waran</t>
-  </si>
-  <si>
-    <t>option solve pin month also soon got issue kind times sort zeroi im pinafter save update monthly keypad chennaiplease card lot use possible result n work enter last activate try came debit trying</t>
-  </si>
-  <si>
-    <t>annoying facing problems account opened</t>
-  </si>
-  <si>
-    <t>suresh dongale</t>
-  </si>
-  <si>
-    <t>mobile thanks bank use application experience last dbs banking two well years</t>
-  </si>
-  <si>
-    <t>mobile thanks  use application experience last   two well years</t>
-  </si>
-  <si>
-    <t>Manish Kumar</t>
-  </si>
-  <si>
-    <t>bt disburse taking unale time personal server trying actionalays</t>
-  </si>
-  <si>
-    <t>slow never card worst app activate life seen received debit till able</t>
-  </si>
-  <si>
-    <t>slow never card worst  activate life seen received debit till able</t>
-  </si>
-  <si>
-    <t>Pramoda K S</t>
-  </si>
-  <si>
-    <t>money using recommend helps nice instant fixed application experience dbs 2 deposit within one transfer im since many years digibank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">money using recommend helps nice instant fixed application experience  2 deposit within one transfer im since many years </t>
-  </si>
-  <si>
-    <t>Rudransh Kumar</t>
-  </si>
-  <si>
-    <t>money whenever saying went always working something want transfer wrong</t>
-  </si>
-  <si>
-    <t>Black Hammer</t>
-  </si>
-  <si>
-    <t>resolved small town hope bank application still office app lagging also bit increase soon good service please</t>
-  </si>
-  <si>
-    <t>resolved small town hope  application still office  lagging also bit increase soon good service please</t>
-  </si>
-  <si>
-    <t>Himanshu Phulara</t>
-  </si>
-  <si>
-    <t>digibank credit card unable app make ro bill payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> credit card unable  make ro bill payment</t>
-  </si>
-  <si>
-    <t>Bijoy Rauth</t>
-  </si>
-  <si>
-    <t>applied days id tracking 2 received didnt first</t>
-  </si>
-  <si>
-    <t>penikalapati praveen</t>
-  </si>
-  <si>
-    <t>loans provide worst app quay throughout mention india</t>
-  </si>
-  <si>
-    <t>loans provide worst  quay throughout mention india</t>
-  </si>
-  <si>
-    <t>Pradyumna Kumar Sahoo</t>
-  </si>
-  <si>
-    <t>solution solves bank loved tips problems hassle seconds banking free digibot within finger</t>
-  </si>
-  <si>
-    <t>solution solves  loved tips problems hassle seconds  free digibot within finger</t>
-  </si>
-  <si>
-    <t>Suraj Avatade</t>
-  </si>
-  <si>
-    <t>money useless add option upi 3month bad card experience last debit want</t>
-  </si>
-  <si>
-    <t>Monika Arora</t>
-  </si>
-  <si>
-    <t>facing issue slow times app tech</t>
-  </si>
-  <si>
-    <t>facing issue slow times  tech</t>
-  </si>
-  <si>
-    <t>cash sachin adding amazing convenient withdrawals ambassador brand app tendulkar banking also transfer fund well 0 mr</t>
-  </si>
-  <si>
-    <t>cash sachin adding amazing convenient withdrawals ambassador brand  tendulkar  also transfer fund well 0 mr</t>
-  </si>
-  <si>
-    <t>Ajay Dubey</t>
-  </si>
-  <si>
-    <t>upi resolve issue dormant getting inactive account service</t>
-  </si>
-  <si>
-    <t>Sumit Jha</t>
-  </si>
-  <si>
-    <t>facing appany slow problems problem app time types regarding please solve process</t>
-  </si>
-  <si>
-    <t>facing appany slow problems problem  time types regarding please solve process</t>
-  </si>
-  <si>
-    <t>get digi bank card debit able</t>
-  </si>
-  <si>
-    <t>get digi  card debit able</t>
-  </si>
-  <si>
-    <t>Prem Dangat</t>
-  </si>
-  <si>
-    <t>customerthey u worst take service first offer digi download nd app r call sending eligible bankdont dont poor care making year appthey customer fool confirm</t>
-  </si>
-  <si>
-    <t>customerthey u worst take service first offer digi download nd  r call sending eligible bankdont dont poor care making year appthey customer fool confirm</t>
-  </si>
-  <si>
-    <t>Mahish Singh</t>
-  </si>
-  <si>
-    <t>registered person number working get called app lost someone applied anyone update neither call days says 2 verification arrival mobile aadar week customer</t>
-  </si>
-  <si>
-    <t>registered person number working get called  lost someone applied anyone update neither call days says 2 verification arrival mobile aadar week customer</t>
-  </si>
-  <si>
-    <t>Pahen Phom</t>
-  </si>
-  <si>
-    <t>get expecting daily wanna card extend temporarily complaints limit debit till good im</t>
-  </si>
-  <si>
-    <t>RAHUL RANJAN</t>
-  </si>
-  <si>
-    <t>get problem doesnt always otp probably servers</t>
-  </si>
-  <si>
-    <t>B C</t>
-  </si>
-  <si>
-    <t>sing waste match password id app wasted totally poor working tried time username correct</t>
-  </si>
-  <si>
-    <t>sing waste match password id  wasted totally poor working tried time username correct</t>
-  </si>
-  <si>
-    <t>options deposits completely upi charges much faq bank fixed better withdrawals cons program also pros good offers apps great atms would scorecard app account digibot checked digibucks bill savings etc card finally aside dont robust pay banking integrate therein accounts help digital atm include dbs payments debit many</t>
-  </si>
-  <si>
-    <t>options deposits completely upi charges much faq  fixed better withdrawals cons program also pros good offers apps great atms would scorecard  account digibot checked digibucks bill savings etc card finally aside dont robust pay  integrate therein accounts help digital atm include  payments debit many</t>
-  </si>
-  <si>
-    <t>Prashant Kumar</t>
-  </si>
-  <si>
-    <t>useless hang maximum application app time crease going service</t>
-  </si>
-  <si>
-    <t>useless hang maximum application  time crease going service</t>
-  </si>
-  <si>
-    <t>Ali Ajmeri</t>
-  </si>
-  <si>
-    <t>slow problems app kindly still speed</t>
-  </si>
-  <si>
-    <t>slow problems  kindly still speed</t>
-  </si>
-  <si>
-    <t>sajid rabi</t>
-  </si>
-  <si>
-    <t>improvement plz se apps hota atm koi nai kai camplain kiya bhi withdrawal horah transfer recharge help fashi payment na</t>
-  </si>
-  <si>
-    <t>Soumik Naskar</t>
-  </si>
-  <si>
-    <t>dbs good uperb app</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> good uperb </t>
-  </si>
-  <si>
-    <t>Sita Rama Reddy Burramukku</t>
-  </si>
-  <si>
-    <t>ifs money code add wallet resolve unable even number ac correct though first given</t>
-  </si>
-  <si>
-    <t>Anand Singh</t>
-  </si>
-  <si>
-    <t>exit using back app button able</t>
-  </si>
-  <si>
-    <t>exit using back  button able</t>
-  </si>
-  <si>
-    <t>NEERA MANKAD</t>
-  </si>
-  <si>
-    <t>best wallet proud bank use funds worlds app account providing safest ane one user friendly intrest</t>
-  </si>
-  <si>
-    <t>best wallet proud  use funds worlds  account providing safest ane one user friendly intrest</t>
-  </si>
-  <si>
-    <t>Manoj Pandey</t>
-  </si>
-  <si>
-    <t>best one bank use app account banking salary come benefits acrosscan</t>
-  </si>
-  <si>
-    <t>best one  use  account  salary come benefits acrosscan</t>
-  </si>
-  <si>
-    <t>Mohammed Iftekhar Aalam</t>
-  </si>
-  <si>
-    <t>password reset forgotten unable</t>
-  </si>
-  <si>
-    <t>ramesh babu</t>
-  </si>
-  <si>
-    <t>best excellent team use times dbs app easy system banking service lagging</t>
-  </si>
-  <si>
-    <t>best excellent team use times   easy system  service lagging</t>
-  </si>
-  <si>
-    <t>Gourab Das</t>
-  </si>
-  <si>
-    <t>charges maintenance fingertips atm amt use cool without easy become min well</t>
-  </si>
-  <si>
-    <t>A M</t>
-  </si>
-  <si>
-    <t>stop slow banking bit one</t>
-  </si>
-  <si>
-    <t>stop slow  bit one</t>
-  </si>
-  <si>
-    <t>Ujjwal Sancheti</t>
-  </si>
-  <si>
-    <t>provide card provided days number tracking working received 2 next guaranteed 3</t>
-  </si>
-  <si>
-    <t>blue worst dart customer service</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>best digital bank experience app usage account opening truly anything awesome seamless</t>
-  </si>
-  <si>
-    <t>best digital  experience  usage account opening truly anything awesome seamless</t>
-  </si>
-  <si>
-    <t>B N Mahanta</t>
-  </si>
-  <si>
-    <t>saving odishait bad use open experience app easy account able good</t>
-  </si>
-  <si>
-    <t>saving odishait bad use open experience  easy account able good</t>
-  </si>
-  <si>
-    <t>Samir Nayakawadi</t>
-  </si>
-  <si>
-    <t>option virtual card would like rest app debit things awesome</t>
-  </si>
-  <si>
-    <t>option virtual card would like rest  debit things awesome</t>
-  </si>
-  <si>
-    <t>Yuvaraj Desav</t>
-  </si>
-  <si>
-    <t>best work branches excited job bank use lot must app dbs interested</t>
-  </si>
-  <si>
-    <t>best work branches excited job  use lot must   interested</t>
-  </si>
-  <si>
-    <t>HITESH VEER</t>
-  </si>
-  <si>
-    <t>care mumbai number fast branch customer please reply found</t>
-  </si>
-  <si>
-    <t>atm withdrawal happy limitation</t>
-  </si>
-  <si>
-    <t>Partha Hudati</t>
-  </si>
-  <si>
-    <t>start improvement star lot still need giving done one thats 3</t>
-  </si>
-  <si>
-    <t>shivam singh</t>
-  </si>
-  <si>
-    <t>login back version previous even app account cant restore please</t>
-  </si>
-  <si>
-    <t>login back version previous even  account cant restore please</t>
-  </si>
-  <si>
-    <t>Shivkumar Ladde</t>
-  </si>
-  <si>
-    <t>person easy normal good operate</t>
-  </si>
-  <si>
-    <t>Shubham Bakal</t>
-  </si>
-  <si>
-    <t>made perfect much live bank less sense respect dbs easy banking makes love lots india digibank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">made perfect much live  less sense respect  easy  makes love lots india </t>
-  </si>
-  <si>
-    <t>Bharat Gunjawate</t>
-  </si>
-  <si>
-    <t>money suggestion add option nice card use every app make available debit one</t>
-  </si>
-  <si>
-    <t>money suggestion add option nice card use every  make available debit one</t>
-  </si>
-  <si>
-    <t>Harshit Gupta</t>
-  </si>
-  <si>
-    <t>much good times even 23 appsits slow compared internet banking connectionthe verification smooth process works timeits buffering shows takes buffer always lags fails</t>
-  </si>
-  <si>
-    <t>much good times even 23 appsits slow compared internet  connectionthe verification smooth process works timeits buffering shows takes buffer always lags fails</t>
+    <t>puas bank cicilan kabur jawafull yg tidak chat pihak diberikan jawaban tanpa dengan bayar hubungi selesai tapi bunga utk blm apakah namanya keluarnya full live atau minimum duluan sangat akan transaksi bertanggung kena menyatakan solusi menanyakan review dorisbuda</t>
+  </si>
+  <si>
+    <t>Indra Utama</t>
+  </si>
+  <si>
+    <t>tokopedia bank problem android pake msh selalu regis baru ngaco akun simple irritating semoga error coba s7 berhasil setelah tgl berikutnya di terpaksa server 6 review update full skrg versi website per apps karena lewat dan rating 2019 pun saya terupdate maret melalui samsung</t>
+  </si>
+  <si>
+    <t>tokopedia bank problem android pake msh selalu regis baru ngaco akun simple irritating semoga error coba s7 berhasil setelah tgl berikutnya di terpaksa server 6 review update full skrg versi website per  karena lewat dan rating 2019 pun saya terupdate maret melalui samsung</t>
+  </si>
+  <si>
+    <t>sekar utamie</t>
+  </si>
+  <si>
+    <t>baik2 diperbaiki segera terus toped cepat loading padahal setelah untuk saja tolong malahan sebelum jd perhitungan ga force update versi yah stop thanks lambat kok nya belanjaan dan pernah lama</t>
+  </si>
+  <si>
+    <t>tokopedia hp dari selang baru tidak ngelag app setelah keluar tokopedianya tapi harus klik fix 10menit responding lagi seperti gak full dibuka langsung ikon setiap ngapangapain dan semula bisa direstart review</t>
+  </si>
+  <si>
+    <t>tokopedia hp dari selang baru tidak ngelag  setelah keluar tokopedianya tapi harus klik fix 10menit responding lagi seperti gak full dibuka langsung ikon setiap ngapangapain dan semula bisa direstart review</t>
+  </si>
+  <si>
+    <t>Bangun Sucipto</t>
+  </si>
+  <si>
+    <t>ilang bayarpake gosend minggu jg sampeseller stts dah sampe2 barang malem ga pesen tp update responbilang sampe instan kurir senin slow orderan hari kaga dikirim parahduit</t>
+  </si>
+  <si>
+    <t>Ali Nurzaman</t>
+  </si>
+  <si>
+    <t>apalagi doang tokopedia ratingnya pake teramafull ini memberi tidak penjual kalau selektif tolong maaf nama di seperti loh sayang spam yang ada percuma besar nya dan masalah cs ngasih saya terhadap karna turunkan solusi cuman review lebih menyelesikan</t>
+  </si>
+  <si>
+    <t>Vincentius Fo KingHo</t>
+  </si>
+  <si>
+    <t>tokopedia pada pake selalu sejak wifi diskusi coba padahal depan kesalahan halaman terjadi ga sekali server update terbaru juga dan aja pembelian bisa cuma akses sama dll data</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>pake akun caranya customer dijelasin punya luculucuuuuuumasa melanggar tapi respect barang gitudibilang ga mau gak bgtga supportnyacurang hahahhaa dibilang kenapa beli promo bgt pernah bisa 2 buat sama</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1046,7 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1147,25 +1054,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1173,25 +1080,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1199,25 +1106,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1225,25 +1132,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1251,25 +1158,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1277,25 +1184,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1303,25 +1210,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1329,25 +1236,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1355,25 +1262,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1381,25 +1288,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
         <v>48</v>
-      </c>
-      <c r="G14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1407,25 +1314,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1433,25 +1340,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
         <v>48</v>
-      </c>
-      <c r="G16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1459,25 +1366,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1485,77 +1392,73 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" t="s">
-        <v>73</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H18" t="s"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="n">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" t="s">
-        <v>77</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H19" t="s"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="n">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1563,25 +1466,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1589,25 +1492,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1615,10 +1518,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1627,13 +1530,13 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1641,25 +1544,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1667,25 +1570,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1693,25 +1596,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" t="s">
-        <v>48</v>
-      </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1719,25 +1622,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1745,25 +1648,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1771,25 +1674,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
         <v>22</v>
       </c>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1797,25 +1700,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1823,25 +1726,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1849,25 +1752,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="G32" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H32" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1875,25 +1778,25 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="H33" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1901,25 +1804,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="H34" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1927,25 +1830,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="H35" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1953,25 +1856,25 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="H36" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1979,25 +1882,25 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H37" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2005,25 +1908,25 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="H38" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2031,25 +1934,25 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="H39" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2057,25 +1960,25 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H40" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2083,25 +1986,25 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2109,25 +2012,25 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="G42" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H42" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2135,25 +2038,25 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2161,25 +2064,25 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="H44" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2187,25 +2090,25 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="H45" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2213,25 +2116,25 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="G46" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2239,25 +2142,25 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="H47" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2265,25 +2168,25 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="H48" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2291,25 +2194,25 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2317,25 +2220,25 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" t="s">
         <v>48</v>
-      </c>
-      <c r="F50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" t="s">
-        <v>156</v>
-      </c>
-      <c r="H50" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2343,25 +2246,25 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="H51" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2369,25 +2272,25 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2395,51 +2298,49 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>164</v>
-      </c>
-      <c r="H53" t="s">
-        <v>164</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H53" t="s"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="n">
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="H54" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2447,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2473,25 +2374,25 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2499,103 +2400,97 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C57" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>174</v>
-      </c>
-      <c r="H57" t="s">
-        <v>175</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H57" t="s"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="n">
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>177</v>
-      </c>
-      <c r="H58" t="s">
-        <v>177</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H58" t="s"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="n">
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="G59" t="s">
-        <v>179</v>
-      </c>
-      <c r="H59" t="s">
-        <v>180</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H59" t="s"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="n">
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="H60" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2603,25 +2498,25 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="H61" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2629,25 +2524,25 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="D62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" t="s">
         <v>22</v>
       </c>
-      <c r="E62" t="s">
-        <v>23</v>
-      </c>
       <c r="F62" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="G62" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="H62" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2655,25 +2550,25 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="G63" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="H63" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2681,25 +2576,25 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="G64" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="H64" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2707,25 +2602,25 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="C65" t="s">
         <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="G65" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="H65" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2733,25 +2628,25 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="H66" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2759,25 +2654,25 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="G67" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="H67" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2785,25 +2680,25 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G68" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="H68" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2811,25 +2706,25 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="H69" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2837,25 +2732,25 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="H70" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2863,25 +2758,25 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E71" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F71" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="G71" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H71" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2889,25 +2784,25 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="H72" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2915,25 +2810,25 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="C73" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D73" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="H73" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2941,25 +2836,25 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C74" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="G74" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="H74" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2967,25 +2862,25 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H75" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2993,25 +2888,25 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="C76" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F76" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G76" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="H76" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3019,25 +2914,25 @@
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="H77" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3045,25 +2940,25 @@
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="H78" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3071,25 +2966,25 @@
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D79" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="H79" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3097,25 +2992,25 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="H80" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3123,25 +3018,25 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="C81" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G81" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="H81" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
